--- a/excel/GPSC_sediment_2020.06.17.xlsx
+++ b/excel/GPSC_sediment_2020.06.17.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects_MOST\GPSC_data\GPSC_sediment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Manuscripts\GPSC_bbss\bbbs\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,12 +16,15 @@
     <sheet name="Description" sheetId="2" r:id="rId2"/>
     <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Environmental data'!$A$1:$A$151</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="68">
   <si>
     <t>Cruise</t>
   </si>
@@ -199,66 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OR1_1099</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GC1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OR1_1128</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OR1_1132</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST5-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OR1_1138</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GS5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GS6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GS7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GS8(S9)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S27a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -291,214 +234,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OR1_1151</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GC1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GS1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OR1_1169</t>
-  </si>
-  <si>
-    <t>GC5</t>
-  </si>
-  <si>
-    <t>GS5</t>
-  </si>
-  <si>
-    <t>GC6</t>
-  </si>
-  <si>
-    <t>GS6</t>
-  </si>
-  <si>
-    <t>GS7</t>
-  </si>
-  <si>
-    <t>GS10</t>
-  </si>
-  <si>
-    <t>OR1_1182</t>
-  </si>
-  <si>
-    <t>KS1</t>
-  </si>
-  <si>
-    <t>KS2</t>
-  </si>
-  <si>
-    <t>KS3</t>
-  </si>
-  <si>
-    <t>SC1</t>
-  </si>
-  <si>
-    <t>SC2</t>
-  </si>
-  <si>
-    <t>SC3</t>
-  </si>
-  <si>
-    <t>OR2_2242</t>
-  </si>
-  <si>
-    <t>T3A</t>
-  </si>
-  <si>
-    <t>T9</t>
-  </si>
-  <si>
-    <t>OR1_1190</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GC1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GC3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GC4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GC5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GC6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GS1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GS3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GS4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GS5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GS5B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GS6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FC1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FC2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FC2A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FC3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FC4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FC5A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FS1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FS2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FS3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FS4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FS5B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HC1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HC2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HC4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OR1_1210</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OR1_1210</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HS1A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HS2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OR1_1219</t>
-  </si>
-  <si>
-    <t>S3</t>
-  </si>
-  <si>
-    <t>S4</t>
-  </si>
-  <si>
-    <t>S5</t>
-  </si>
-  <si>
-    <t>S6</t>
-  </si>
-  <si>
-    <t>S7</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>OR3_2077</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Chla</t>
   </si>
   <si>
@@ -523,64 +258,23 @@
     <t>ng/gdry</t>
   </si>
   <si>
-    <t>H1</t>
-  </si>
-  <si>
     <t>Porosity</t>
   </si>
   <si>
     <t>Porosity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>N1</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>0-1.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LGD_T28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FWCR</t>
-  </si>
-  <si>
-    <t>Dive1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dive2</t>
-  </si>
-  <si>
-    <t>Dive3</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="180" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -634,21 +328,6 @@
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1111,131 +790,131 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1302,28 +981,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1348,28 +1009,28 @@
     <cellStyle name="60% - 輔色6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="中等" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="備註" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="合計" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="壞" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="標題" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="標題 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="標題 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="標題 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="標題 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="檢查儲存格" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="計算方式" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="連結的儲存格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="備註" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="說明文字" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文字" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="輔色1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="輔色2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="輔色3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="輔色4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="輔色5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="輔色6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="標題" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="標題 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="標題 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="標題 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="標題 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="輸入" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="輸出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="檢查儲存格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="壞" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="警告文字" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="連結的儲存格" xfId="12" builtinId="24" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1671,11 +1332,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q230"/>
+  <dimension ref="A1:Q151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F208" sqref="F208"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1684,7 +1345,7 @@
     <col min="2" max="2" width="9" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="7" width="9" style="23"/>
+    <col min="5" max="7" width="9" style="22"/>
     <col min="8" max="8" width="13.875" style="16" customWidth="1"/>
     <col min="9" max="10" width="9" style="15"/>
     <col min="11" max="11" width="14.75" style="15" customWidth="1"/>
@@ -1705,13 +1366,13 @@
       <c r="D1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="23" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="19" t="s">
@@ -1724,7 +1385,7 @@
         <v>39</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="L1" s="19" t="s">
         <v>36</v>
@@ -1733,16 +1394,16 @@
         <v>37</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>135</v>
+        <v>62</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>141</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1">
@@ -1758,13 +1419,13 @@
       <c r="D2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="22">
         <v>9.9700000000000006</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="22">
         <v>45.63</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="22">
         <v>44.4</v>
       </c>
       <c r="H2" s="16">
@@ -1799,13 +1460,13 @@
       <c r="D3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="22">
         <v>6.41</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="22">
         <v>34.790000000000006</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="22">
         <v>58.8</v>
       </c>
       <c r="H3" s="16">
@@ -1840,13 +1501,13 @@
       <c r="D4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <v>7.29</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="22">
         <v>39.71</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="22">
         <v>53</v>
       </c>
       <c r="H4" s="16">
@@ -1881,13 +1542,13 @@
       <c r="D5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <v>8.3000000000000007</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="22">
         <v>39.099999999999994</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="22">
         <v>52.6</v>
       </c>
       <c r="H5" s="16">
@@ -1922,13 +1583,13 @@
       <c r="D6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <v>19.2</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="22">
         <v>60.7</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="22">
         <v>20.099999999999994</v>
       </c>
       <c r="H6" s="16">
@@ -1963,13 +1624,13 @@
       <c r="D7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="22">
         <v>19</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="22">
         <v>37.700000000000003</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="22">
         <v>43.3</v>
       </c>
       <c r="H7" s="16">
@@ -2004,13 +1665,13 @@
       <c r="D8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="22">
         <v>1.1399999999999999</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="22">
         <v>6.42</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="22">
         <v>92.44</v>
       </c>
       <c r="H8" s="16">
@@ -2045,13 +1706,13 @@
       <c r="D9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="22">
         <v>3.62</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="22">
         <v>9.0799999999999983</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="22">
         <v>87.3</v>
       </c>
       <c r="H9" s="16">
@@ -2086,13 +1747,13 @@
       <c r="D10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="22">
         <v>6.13</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="22">
         <v>13.670000000000002</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="22">
         <v>80.2</v>
       </c>
       <c r="H10" s="16">
@@ -2127,13 +1788,13 @@
       <c r="D11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="22">
         <v>1.08</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="22">
         <v>5.79</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="22">
         <v>93.13</v>
       </c>
       <c r="H11" s="16">
@@ -2168,13 +1829,13 @@
       <c r="D12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="22">
         <v>2.02</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="22">
         <v>6.43</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="22">
         <v>91.55</v>
       </c>
       <c r="H12" s="16">
@@ -2209,13 +1870,13 @@
       <c r="D13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="22">
         <v>8.34</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="22">
         <v>41.36</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="22">
         <v>50.3</v>
       </c>
       <c r="H13" s="16">
@@ -2250,13 +1911,13 @@
       <c r="D14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="22">
         <v>12.7</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="22">
         <v>53.8</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="22">
         <v>33.5</v>
       </c>
       <c r="H14" s="16">
@@ -2291,13 +1952,13 @@
       <c r="D15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="22">
         <v>10.7</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="22">
         <v>58.899999999999991</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="22">
         <v>30.400000000000006</v>
       </c>
       <c r="H15" s="16">
@@ -2332,13 +1993,13 @@
       <c r="D16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="22">
         <v>17.5</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="22">
         <v>71.099999999999994</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="22">
         <v>11.400000000000006</v>
       </c>
       <c r="H16" s="16">
@@ -2373,13 +2034,13 @@
       <c r="D17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="22">
         <v>11.6</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="22">
         <v>65.400000000000006</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="22">
         <v>23</v>
       </c>
       <c r="H17" s="16">
@@ -2414,13 +2075,13 @@
       <c r="D18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="22">
         <v>14.6</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="22">
         <v>69.900000000000006</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="22">
         <v>15.5</v>
       </c>
       <c r="H18" s="16">
@@ -2455,13 +2116,13 @@
       <c r="D19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="22">
         <v>20.100000000000001</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="22">
         <v>71.5</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="22">
         <v>8.4000000000000057</v>
       </c>
       <c r="H19" s="16">
@@ -2496,13 +2157,13 @@
       <c r="D20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="22">
         <v>21.7</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="22">
         <v>76.5</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="22">
         <v>1.7999999999999972</v>
       </c>
       <c r="H20" s="16">
@@ -2537,13 +2198,13 @@
       <c r="D21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="22">
         <v>23.2</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="22">
         <v>75.099999999999994</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="22">
         <v>1.7000000000000028</v>
       </c>
       <c r="H21" s="16">
@@ -2578,13 +2239,13 @@
       <c r="D22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="22">
         <v>19.100000000000001</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="22">
         <v>75.900000000000006</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="22">
         <v>5</v>
       </c>
       <c r="H22" s="16">
@@ -2619,13 +2280,13 @@
       <c r="D23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="22">
         <v>16.5</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="22">
         <v>78.400000000000006</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="22">
         <v>5.0999999999999943</v>
       </c>
       <c r="H23" s="16">
@@ -2660,13 +2321,13 @@
       <c r="D24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="22">
         <v>11.6</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="22">
         <v>69.300000000000011</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="22">
         <v>19.099999999999994</v>
       </c>
       <c r="H24" s="16">
@@ -2701,13 +2362,13 @@
       <c r="D25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="22">
         <v>18.100000000000001</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="22">
         <v>73.800000000000011</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="22">
         <v>8.0999999999999943</v>
       </c>
       <c r="H25" s="16">
@@ -2742,13 +2403,13 @@
       <c r="D26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="22">
         <v>15.4</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="22">
         <v>77.5</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G26" s="22">
         <v>7.0999999999999943</v>
       </c>
       <c r="H26" s="16">
@@ -2783,13 +2444,13 @@
       <c r="D27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="22">
         <v>13.2</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F27" s="22">
         <v>78</v>
       </c>
-      <c r="G27" s="23">
+      <c r="G27" s="22">
         <v>8.7999999999999972</v>
       </c>
       <c r="H27" s="16">
@@ -2824,13 +2485,13 @@
       <c r="D28" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="22">
         <v>18.2</v>
       </c>
-      <c r="F28" s="23">
+      <c r="F28" s="22">
         <v>77.399999999999991</v>
       </c>
-      <c r="G28" s="23">
+      <c r="G28" s="22">
         <v>4.4000000000000057</v>
       </c>
       <c r="H28" s="16">
@@ -2865,13 +2526,13 @@
       <c r="D29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="22">
         <v>16.399999999999999</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F29" s="22">
         <v>77</v>
       </c>
-      <c r="G29" s="23">
+      <c r="G29" s="22">
         <v>6.5999999999999943</v>
       </c>
       <c r="H29" s="16">
@@ -2906,13 +2567,13 @@
       <c r="D30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="22">
         <v>14.9</v>
       </c>
-      <c r="F30" s="23">
+      <c r="F30" s="22">
         <v>76.399999999999991</v>
       </c>
-      <c r="G30" s="23">
+      <c r="G30" s="22">
         <v>8.7000000000000028</v>
       </c>
       <c r="H30" s="16">
@@ -2947,13 +2608,13 @@
       <c r="D31" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="22">
         <v>19</v>
       </c>
-      <c r="F31" s="23">
+      <c r="F31" s="22">
         <v>75.8</v>
       </c>
-      <c r="G31" s="23">
+      <c r="G31" s="22">
         <v>5.2000000000000028</v>
       </c>
       <c r="H31" s="16">
@@ -2988,13 +2649,13 @@
       <c r="D32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E32" s="22">
         <v>20.7</v>
       </c>
-      <c r="F32" s="23">
+      <c r="F32" s="22">
         <v>77.399999999999991</v>
       </c>
-      <c r="G32" s="23">
+      <c r="G32" s="22">
         <v>1.9000000000000057</v>
       </c>
       <c r="H32" s="16">
@@ -3029,13 +2690,13 @@
       <c r="D33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="22">
         <v>23.8</v>
       </c>
-      <c r="F33" s="23">
+      <c r="F33" s="22">
         <v>75.2</v>
       </c>
-      <c r="G33" s="23">
+      <c r="G33" s="22">
         <v>1</v>
       </c>
       <c r="H33" s="16">
@@ -3070,13 +2731,13 @@
       <c r="D34" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="23">
+      <c r="E34" s="22">
         <v>22.8</v>
       </c>
-      <c r="F34" s="23">
+      <c r="F34" s="22">
         <v>75.600000000000009</v>
       </c>
-      <c r="G34" s="23">
+      <c r="G34" s="22">
         <v>1.5999999999999943</v>
       </c>
       <c r="H34" s="16">
@@ -3111,13 +2772,13 @@
       <c r="D35" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E35" s="22">
         <v>22.3</v>
       </c>
-      <c r="F35" s="23">
+      <c r="F35" s="22">
         <v>76.100000000000009</v>
       </c>
-      <c r="G35" s="23">
+      <c r="G35" s="22">
         <v>1.5999999999999943</v>
       </c>
       <c r="H35" s="16">
@@ -3152,13 +2813,13 @@
       <c r="D36" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E36" s="23">
+      <c r="E36" s="22">
         <v>23</v>
       </c>
-      <c r="F36" s="23">
+      <c r="F36" s="22">
         <v>75.8</v>
       </c>
-      <c r="G36" s="23">
+      <c r="G36" s="22">
         <v>1.2000000000000028</v>
       </c>
       <c r="H36" s="16">
@@ -3193,13 +2854,13 @@
       <c r="D37" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E37" s="22">
         <v>21.6</v>
       </c>
-      <c r="F37" s="23">
+      <c r="F37" s="22">
         <v>77.599999999999994</v>
       </c>
-      <c r="G37" s="23">
+      <c r="G37" s="22">
         <v>0.79999999999999716</v>
       </c>
       <c r="H37" s="16">
@@ -3234,13 +2895,13 @@
       <c r="D38" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E38" s="22">
         <v>22.3</v>
       </c>
-      <c r="F38" s="23">
+      <c r="F38" s="22">
         <v>75.100000000000009</v>
       </c>
-      <c r="G38" s="23">
+      <c r="G38" s="22">
         <v>2.5999999999999943</v>
       </c>
       <c r="H38" s="16">
@@ -3275,13 +2936,13 @@
       <c r="D39" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E39" s="23">
+      <c r="E39" s="22">
         <v>22.4</v>
       </c>
-      <c r="F39" s="23">
+      <c r="F39" s="22">
         <v>76.199999999999989</v>
       </c>
-      <c r="G39" s="23">
+      <c r="G39" s="22">
         <v>1.4000000000000057</v>
       </c>
       <c r="H39" s="16">
@@ -3316,13 +2977,13 @@
       <c r="D40" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E40" s="23">
+      <c r="E40" s="22">
         <v>22.1</v>
       </c>
-      <c r="F40" s="23">
+      <c r="F40" s="22">
         <v>76.199999999999989</v>
       </c>
-      <c r="G40" s="23">
+      <c r="G40" s="22">
         <v>1.7000000000000028</v>
       </c>
       <c r="H40" s="16">
@@ -3357,13 +3018,13 @@
       <c r="D41" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E41" s="23">
+      <c r="E41" s="22">
         <v>21.4</v>
       </c>
-      <c r="F41" s="23">
+      <c r="F41" s="22">
         <v>74</v>
       </c>
-      <c r="G41" s="23">
+      <c r="G41" s="22">
         <v>4.5999999999999943</v>
       </c>
       <c r="H41" s="16">
@@ -3398,13 +3059,13 @@
       <c r="D42" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E42" s="23">
+      <c r="E42" s="22">
         <v>22.8</v>
       </c>
-      <c r="F42" s="23">
+      <c r="F42" s="22">
         <v>73.600000000000009</v>
       </c>
-      <c r="G42" s="23">
+      <c r="G42" s="22">
         <v>3.5999999999999943</v>
       </c>
       <c r="H42" s="16">
@@ -3439,13 +3100,13 @@
       <c r="D43" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E43" s="23">
+      <c r="E43" s="22">
         <v>22.2</v>
       </c>
-      <c r="F43" s="23">
+      <c r="F43" s="22">
         <v>74.7</v>
       </c>
-      <c r="G43" s="23">
+      <c r="G43" s="22">
         <v>3.0999999999999943</v>
       </c>
       <c r="H43" s="16">
@@ -3480,13 +3141,13 @@
       <c r="D44" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E44" s="23">
+      <c r="E44" s="22">
         <v>26.1</v>
       </c>
-      <c r="F44" s="23">
+      <c r="F44" s="22">
         <v>72.699999999999989</v>
       </c>
-      <c r="G44" s="23">
+      <c r="G44" s="22">
         <v>1.2000000000000028</v>
       </c>
       <c r="H44" s="16">
@@ -3521,13 +3182,13 @@
       <c r="D45" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E45" s="23">
+      <c r="E45" s="22">
         <v>23</v>
       </c>
-      <c r="F45" s="23">
+      <c r="F45" s="22">
         <v>75.3</v>
       </c>
-      <c r="G45" s="23">
+      <c r="G45" s="22">
         <v>1.7000000000000028</v>
       </c>
       <c r="H45" s="16">
@@ -3562,13 +3223,13 @@
       <c r="D46" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E46" s="23">
+      <c r="E46" s="22">
         <v>23</v>
       </c>
-      <c r="F46" s="23">
+      <c r="F46" s="22">
         <v>75</v>
       </c>
-      <c r="G46" s="23">
+      <c r="G46" s="22">
         <v>2</v>
       </c>
       <c r="H46" s="16">
@@ -3603,13 +3264,13 @@
       <c r="D47" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E47" s="23">
+      <c r="E47" s="22">
         <v>24.3</v>
       </c>
-      <c r="F47" s="23">
+      <c r="F47" s="22">
         <v>74.2</v>
       </c>
-      <c r="G47" s="23">
+      <c r="G47" s="22">
         <v>1.5</v>
       </c>
       <c r="H47" s="16">
@@ -3644,13 +3305,13 @@
       <c r="D48" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E48" s="23">
+      <c r="E48" s="22">
         <v>25.5</v>
       </c>
-      <c r="F48" s="23">
+      <c r="F48" s="22">
         <v>73.099999999999994</v>
       </c>
-      <c r="G48" s="23">
+      <c r="G48" s="22">
         <v>1.4000000000000057</v>
       </c>
       <c r="H48" s="16">
@@ -3685,13 +3346,13 @@
       <c r="D49" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E49" s="23">
+      <c r="E49" s="22">
         <v>25</v>
       </c>
-      <c r="F49" s="23">
+      <c r="F49" s="22">
         <v>73.3</v>
       </c>
-      <c r="G49" s="23">
+      <c r="G49" s="22">
         <v>1.7000000000000028</v>
       </c>
       <c r="H49" s="16">
@@ -3726,13 +3387,13 @@
       <c r="D50" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E50" s="23">
+      <c r="E50" s="22">
         <v>13.3</v>
       </c>
-      <c r="F50" s="23">
+      <c r="F50" s="22">
         <v>61.100000000000009</v>
       </c>
-      <c r="G50" s="23">
+      <c r="G50" s="22">
         <v>25.599999999999994</v>
       </c>
       <c r="H50" s="16">
@@ -3767,13 +3428,13 @@
       <c r="D51" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E51" s="23">
+      <c r="E51" s="22">
         <v>18.3</v>
       </c>
-      <c r="F51" s="23">
+      <c r="F51" s="22">
         <v>68.5</v>
       </c>
-      <c r="G51" s="23">
+      <c r="G51" s="22">
         <v>13.200000000000003</v>
       </c>
       <c r="H51" s="16">
@@ -3808,13 +3469,13 @@
       <c r="D52" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E52" s="23">
+      <c r="E52" s="22">
         <v>18.7</v>
       </c>
-      <c r="F52" s="23">
+      <c r="F52" s="22">
         <v>73.5</v>
       </c>
-      <c r="G52" s="23">
+      <c r="G52" s="22">
         <v>7.7999999999999972</v>
       </c>
       <c r="H52" s="16">
@@ -3849,13 +3510,13 @@
       <c r="D53" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E53" s="23">
+      <c r="E53" s="22">
         <v>19.2</v>
       </c>
-      <c r="F53" s="23">
+      <c r="F53" s="22">
         <v>73.3</v>
       </c>
-      <c r="G53" s="23">
+      <c r="G53" s="22">
         <v>7.5</v>
       </c>
       <c r="H53" s="16">
@@ -3890,13 +3551,13 @@
       <c r="D54" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E54" s="23">
+      <c r="E54" s="22">
         <v>37.200000000000003</v>
       </c>
-      <c r="F54" s="23">
+      <c r="F54" s="22">
         <v>62.789999999999992</v>
       </c>
-      <c r="G54" s="23">
+      <c r="G54" s="22">
         <v>1.0000000000005116E-2</v>
       </c>
       <c r="H54" s="16">
@@ -3931,13 +3592,13 @@
       <c r="D55" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E55" s="23">
+      <c r="E55" s="22">
         <v>20.9</v>
       </c>
-      <c r="F55" s="23">
+      <c r="F55" s="22">
         <v>72.400000000000006</v>
       </c>
-      <c r="G55" s="23">
+      <c r="G55" s="22">
         <v>6.7000000000000028</v>
       </c>
       <c r="H55" s="16">
@@ -3972,13 +3633,13 @@
       <c r="D56" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E56" s="23">
+      <c r="E56" s="22">
         <v>17.899999999999999</v>
       </c>
-      <c r="F56" s="23">
+      <c r="F56" s="22">
         <v>64.900000000000006</v>
       </c>
-      <c r="G56" s="23">
+      <c r="G56" s="22">
         <v>17.200000000000003</v>
       </c>
       <c r="H56" s="16">
@@ -4013,13 +3674,13 @@
       <c r="D57" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E57" s="23">
+      <c r="E57" s="22">
         <v>20.6</v>
       </c>
-      <c r="F57" s="23">
+      <c r="F57" s="22">
         <v>67</v>
       </c>
-      <c r="G57" s="23">
+      <c r="G57" s="22">
         <v>12.400000000000006</v>
       </c>
       <c r="H57" s="16">
@@ -4054,13 +3715,13 @@
       <c r="D58" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E58" s="23">
+      <c r="E58" s="22">
         <v>18.8</v>
       </c>
-      <c r="F58" s="23">
+      <c r="F58" s="22">
         <v>63.7</v>
       </c>
-      <c r="G58" s="23">
+      <c r="G58" s="22">
         <v>17.5</v>
       </c>
       <c r="H58" s="16">
@@ -4095,13 +3756,13 @@
       <c r="D59" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E59" s="23">
+      <c r="E59" s="22">
         <v>14.1</v>
       </c>
-      <c r="F59" s="23">
+      <c r="F59" s="22">
         <v>68.300000000000011</v>
       </c>
-      <c r="G59" s="23">
+      <c r="G59" s="22">
         <v>17.599999999999994</v>
       </c>
       <c r="H59" s="16">
@@ -4136,13 +3797,13 @@
       <c r="D60" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E60" s="23">
+      <c r="E60" s="22">
         <v>23.8</v>
       </c>
-      <c r="F60" s="23">
+      <c r="F60" s="22">
         <v>67.7</v>
       </c>
-      <c r="G60" s="23">
+      <c r="G60" s="22">
         <v>8.5</v>
       </c>
       <c r="H60" s="16">
@@ -4177,13 +3838,13 @@
       <c r="D61" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E61" s="23">
+      <c r="E61" s="22">
         <v>20.8</v>
       </c>
-      <c r="F61" s="23">
+      <c r="F61" s="22">
         <v>70.600000000000009</v>
       </c>
-      <c r="G61" s="23">
+      <c r="G61" s="22">
         <v>8.5999999999999943</v>
       </c>
       <c r="H61" s="16">
@@ -4218,13 +3879,13 @@
       <c r="D62" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E62" s="23">
+      <c r="E62" s="22">
         <v>34.1</v>
       </c>
-      <c r="F62" s="23">
+      <c r="F62" s="22">
         <v>65.87</v>
       </c>
-      <c r="G62" s="23">
+      <c r="G62" s="22">
         <v>3.0000000000001137E-2</v>
       </c>
       <c r="H62" s="16">
@@ -4259,13 +3920,13 @@
       <c r="D63" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E63" s="23">
+      <c r="E63" s="22">
         <v>19.899999999999999</v>
       </c>
-      <c r="F63" s="23">
+      <c r="F63" s="22">
         <v>71.800000000000011</v>
       </c>
-      <c r="G63" s="23">
+      <c r="G63" s="22">
         <v>8.2999999999999972</v>
       </c>
       <c r="H63" s="16">
@@ -4300,13 +3961,13 @@
       <c r="D64" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E64" s="23">
+      <c r="E64" s="22">
         <v>20.8</v>
       </c>
-      <c r="F64" s="23">
+      <c r="F64" s="22">
         <v>73.8</v>
       </c>
-      <c r="G64" s="23">
+      <c r="G64" s="22">
         <v>5.4000000000000057</v>
       </c>
       <c r="H64" s="16">
@@ -4341,13 +4002,13 @@
       <c r="D65" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E65" s="23">
+      <c r="E65" s="22">
         <v>17.3</v>
       </c>
-      <c r="F65" s="23">
+      <c r="F65" s="22">
         <v>77.600000000000009</v>
       </c>
-      <c r="G65" s="23">
+      <c r="G65" s="22">
         <v>5.0999999999999943</v>
       </c>
       <c r="H65" s="16">
@@ -4382,13 +4043,13 @@
       <c r="D66" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E66" s="23">
+      <c r="E66" s="22">
         <v>15.9</v>
       </c>
-      <c r="F66" s="23">
+      <c r="F66" s="22">
         <v>70.399999999999991</v>
       </c>
-      <c r="G66" s="23">
+      <c r="G66" s="22">
         <v>13.700000000000003</v>
       </c>
       <c r="H66" s="16">
@@ -4423,13 +4084,13 @@
       <c r="D67" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E67" s="23">
+      <c r="E67" s="22">
         <v>22.5</v>
       </c>
-      <c r="F67" s="23">
+      <c r="F67" s="22">
         <v>74.400000000000006</v>
       </c>
-      <c r="G67" s="23">
+      <c r="G67" s="22">
         <v>3.0999999999999943</v>
       </c>
       <c r="H67" s="16">
@@ -4464,13 +4125,13 @@
       <c r="D68" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E68" s="23">
+      <c r="E68" s="22">
         <v>20.3</v>
       </c>
-      <c r="F68" s="23">
+      <c r="F68" s="22">
         <v>76.600000000000009</v>
       </c>
-      <c r="G68" s="23">
+      <c r="G68" s="22">
         <v>3.0999999999999943</v>
       </c>
       <c r="H68" s="16">
@@ -4505,13 +4166,13 @@
       <c r="D69" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E69" s="23">
+      <c r="E69" s="22">
         <v>22.1</v>
       </c>
-      <c r="F69" s="23">
+      <c r="F69" s="22">
         <v>73</v>
       </c>
-      <c r="G69" s="23">
+      <c r="G69" s="22">
         <v>4.9000000000000057</v>
       </c>
       <c r="H69" s="16">
@@ -4546,13 +4207,13 @@
       <c r="D70" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E70" s="23">
+      <c r="E70" s="22">
         <v>24.6</v>
       </c>
-      <c r="F70" s="23">
+      <c r="F70" s="22">
         <v>72.800000000000011</v>
       </c>
-      <c r="G70" s="23">
+      <c r="G70" s="22">
         <v>2.5999999999999943</v>
       </c>
       <c r="H70" s="16">
@@ -4587,13 +4248,13 @@
       <c r="D71" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E71" s="23">
+      <c r="E71" s="22">
         <v>22.1</v>
       </c>
-      <c r="F71" s="23">
+      <c r="F71" s="22">
         <v>75.300000000000011</v>
       </c>
-      <c r="G71" s="23">
+      <c r="G71" s="22">
         <v>2.5999999999999943</v>
       </c>
       <c r="H71" s="16">
@@ -4628,13 +4289,13 @@
       <c r="D72" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E72" s="23">
+      <c r="E72" s="22">
         <v>24.7</v>
       </c>
-      <c r="F72" s="23">
+      <c r="F72" s="22">
         <v>73.5</v>
       </c>
-      <c r="G72" s="23">
+      <c r="G72" s="22">
         <v>1.7999999999999972</v>
       </c>
       <c r="H72" s="16">
@@ -4669,13 +4330,13 @@
       <c r="D73" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E73" s="23">
+      <c r="E73" s="22">
         <v>21.9</v>
       </c>
-      <c r="F73" s="23">
+      <c r="F73" s="22">
         <v>76.800000000000011</v>
       </c>
-      <c r="G73" s="23">
+      <c r="G73" s="22">
         <v>1.2999999999999972</v>
       </c>
       <c r="H73" s="16">
@@ -4710,13 +4371,13 @@
       <c r="D74" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E74" s="23">
+      <c r="E74" s="22">
         <v>12.6</v>
       </c>
-      <c r="F74" s="23">
+      <c r="F74" s="22">
         <v>78.100000000000009</v>
       </c>
-      <c r="G74" s="23">
+      <c r="G74" s="22">
         <v>9.2999999999999972</v>
       </c>
       <c r="H74" s="16">
@@ -4751,13 +4412,13 @@
       <c r="D75" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E75" s="23">
+      <c r="E75" s="22">
         <v>23.2</v>
       </c>
-      <c r="F75" s="23">
+      <c r="F75" s="22">
         <v>75.2</v>
       </c>
-      <c r="G75" s="23">
+      <c r="G75" s="22">
         <v>1.5999999999999943</v>
       </c>
       <c r="H75" s="16">
@@ -4792,13 +4453,13 @@
       <c r="D76" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E76" s="23">
+      <c r="E76" s="22">
         <v>21.9</v>
       </c>
-      <c r="F76" s="23">
+      <c r="F76" s="22">
         <v>75.699999999999989</v>
       </c>
-      <c r="G76" s="23">
+      <c r="G76" s="22">
         <v>2.4000000000000057</v>
       </c>
       <c r="H76" s="16">
@@ -4833,13 +4494,13 @@
       <c r="D77" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E77" s="23">
+      <c r="E77" s="22">
         <v>17</v>
       </c>
-      <c r="F77" s="23">
+      <c r="F77" s="22">
         <v>78.400000000000006</v>
       </c>
-      <c r="G77" s="23">
+      <c r="G77" s="22">
         <v>4.5999999999999943</v>
       </c>
       <c r="H77" s="16">
@@ -4874,13 +4535,13 @@
       <c r="D78" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E78" s="23">
+      <c r="E78" s="22">
         <v>22.4</v>
       </c>
-      <c r="F78" s="23">
+      <c r="F78" s="22">
         <v>75.800000000000011</v>
       </c>
-      <c r="G78" s="23">
+      <c r="G78" s="22">
         <v>1.7999999999999972</v>
       </c>
       <c r="H78" s="16">
@@ -4915,13 +4576,13 @@
       <c r="D79" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E79" s="23">
+      <c r="E79" s="22">
         <v>27.4</v>
       </c>
-      <c r="F79" s="23">
+      <c r="F79" s="22">
         <v>71.800000000000011</v>
       </c>
-      <c r="G79" s="23">
+      <c r="G79" s="22">
         <v>0.79999999999999716</v>
       </c>
       <c r="H79" s="16">
@@ -4956,13 +4617,13 @@
       <c r="D80" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E80" s="23">
+      <c r="E80" s="22">
         <v>19.8</v>
       </c>
-      <c r="F80" s="23">
+      <c r="F80" s="22">
         <v>77.5</v>
       </c>
-      <c r="G80" s="23">
+      <c r="G80" s="22">
         <v>2.7000000000000028</v>
       </c>
       <c r="H80" s="16">
@@ -4997,13 +4658,13 @@
       <c r="D81" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E81" s="23">
+      <c r="E81" s="22">
         <v>23.8</v>
       </c>
-      <c r="F81" s="23">
+      <c r="F81" s="22">
         <v>75.3</v>
       </c>
-      <c r="G81" s="23">
+      <c r="G81" s="22">
         <v>0.90000000000000568</v>
       </c>
       <c r="H81" s="16">
@@ -5038,13 +4699,13 @@
       <c r="D82" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E82" s="23">
+      <c r="E82" s="22">
         <v>8.25</v>
       </c>
-      <c r="F82" s="23">
+      <c r="F82" s="22">
         <v>90.55</v>
       </c>
-      <c r="G82" s="23">
+      <c r="G82" s="22">
         <v>1.2000000000000028</v>
       </c>
       <c r="H82" s="16">
@@ -5079,13 +4740,13 @@
       <c r="D83" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E83" s="23">
+      <c r="E83" s="22">
         <v>24.1</v>
       </c>
-      <c r="F83" s="23">
+      <c r="F83" s="22">
         <v>74.599999999999994</v>
       </c>
-      <c r="G83" s="23">
+      <c r="G83" s="22">
         <v>1.2999999999999972</v>
       </c>
       <c r="H83" s="16">
@@ -5120,13 +4781,13 @@
       <c r="D84" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E84" s="23">
+      <c r="E84" s="22">
         <v>20.2</v>
       </c>
-      <c r="F84" s="23">
+      <c r="F84" s="22">
         <v>78.099999999999994</v>
       </c>
-      <c r="G84" s="23">
+      <c r="G84" s="22">
         <v>1.7000000000000028</v>
       </c>
       <c r="H84" s="16">
@@ -5161,13 +4822,13 @@
       <c r="D85" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E85" s="23">
+      <c r="E85" s="22">
         <v>20.2</v>
       </c>
-      <c r="F85" s="23">
+      <c r="F85" s="22">
         <v>78.8</v>
       </c>
-      <c r="G85" s="23">
+      <c r="G85" s="22">
         <v>1</v>
       </c>
       <c r="H85" s="16">
@@ -5202,13 +4863,13 @@
       <c r="D86" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E86" s="23">
+      <c r="E86" s="22">
         <v>24.3</v>
       </c>
-      <c r="F86" s="23">
+      <c r="F86" s="22">
         <v>74</v>
       </c>
-      <c r="G86" s="23">
+      <c r="G86" s="22">
         <v>1.7000000000000028</v>
       </c>
       <c r="H86" s="16">
@@ -5243,13 +4904,13 @@
       <c r="D87" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E87" s="23">
+      <c r="E87" s="22">
         <v>32.200000000000003</v>
       </c>
-      <c r="F87" s="23">
+      <c r="F87" s="22">
         <v>67.5</v>
       </c>
-      <c r="G87" s="23">
+      <c r="G87" s="22">
         <v>0.29999999999999716</v>
       </c>
       <c r="H87" s="16">
@@ -5284,13 +4945,13 @@
       <c r="D88" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E88" s="23">
+      <c r="E88" s="22">
         <v>24.3</v>
       </c>
-      <c r="F88" s="23">
+      <c r="F88" s="22">
         <v>74.900000000000006</v>
       </c>
-      <c r="G88" s="23">
+      <c r="G88" s="22">
         <v>0.79999999999999716</v>
       </c>
       <c r="H88" s="16">
@@ -5325,13 +4986,13 @@
       <c r="D89" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E89" s="23">
+      <c r="E89" s="22">
         <v>21.7</v>
       </c>
-      <c r="F89" s="23">
+      <c r="F89" s="22">
         <v>74.399999999999991</v>
       </c>
-      <c r="G89" s="23">
+      <c r="G89" s="22">
         <v>3.9000000000000057</v>
       </c>
       <c r="H89" s="16">
@@ -5366,13 +5027,13 @@
       <c r="D90" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E90" s="23">
+      <c r="E90" s="22">
         <v>21.7</v>
       </c>
-      <c r="F90" s="23">
+      <c r="F90" s="22">
         <v>75.2</v>
       </c>
-      <c r="G90" s="23">
+      <c r="G90" s="22">
         <v>3.0999999999999943</v>
       </c>
       <c r="H90" s="16">
@@ -5407,13 +5068,13 @@
       <c r="D91" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E91" s="23">
+      <c r="E91" s="22">
         <v>22.1</v>
       </c>
-      <c r="F91" s="23">
+      <c r="F91" s="22">
         <v>75.099999999999994</v>
       </c>
-      <c r="G91" s="23">
+      <c r="G91" s="22">
         <v>2.7999999999999972</v>
       </c>
       <c r="H91" s="16">
@@ -5448,13 +5109,13 @@
       <c r="D92" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E92" s="23">
+      <c r="E92" s="22">
         <v>22.4</v>
       </c>
-      <c r="F92" s="23">
+      <c r="F92" s="22">
         <v>75.900000000000006</v>
       </c>
-      <c r="G92" s="23">
+      <c r="G92" s="22">
         <v>1.7000000000000028</v>
       </c>
       <c r="H92" s="16">
@@ -5489,13 +5150,13 @@
       <c r="D93" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E93" s="23">
+      <c r="E93" s="22">
         <v>24.2</v>
       </c>
-      <c r="F93" s="23">
+      <c r="F93" s="22">
         <v>75.099999999999994</v>
       </c>
-      <c r="G93" s="23">
+      <c r="G93" s="22">
         <v>0.70000000000000284</v>
       </c>
       <c r="H93" s="16">
@@ -5530,13 +5191,13 @@
       <c r="D94" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E94" s="23">
+      <c r="E94" s="22">
         <v>29.6</v>
       </c>
-      <c r="F94" s="23">
+      <c r="F94" s="22">
         <v>70.099999999999994</v>
       </c>
-      <c r="G94" s="23">
+      <c r="G94" s="22">
         <v>0.29999999999999716</v>
       </c>
       <c r="H94" s="16">
@@ -5571,13 +5232,13 @@
       <c r="D95" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E95" s="23">
+      <c r="E95" s="22">
         <v>29.3</v>
       </c>
-      <c r="F95" s="23">
+      <c r="F95" s="22">
         <v>70.3</v>
       </c>
-      <c r="G95" s="23">
+      <c r="G95" s="22">
         <v>0.40000000000000568</v>
       </c>
       <c r="H95" s="16">
@@ -5612,13 +5273,13 @@
       <c r="D96" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E96" s="23">
+      <c r="E96" s="22">
         <v>27.2</v>
       </c>
-      <c r="F96" s="23">
+      <c r="F96" s="22">
         <v>72.5</v>
       </c>
-      <c r="G96" s="23">
+      <c r="G96" s="22">
         <v>0.29999999999999716</v>
       </c>
       <c r="H96" s="16">
@@ -5653,13 +5314,13 @@
       <c r="D97" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E97" s="23">
+      <c r="E97" s="22">
         <v>23.9</v>
       </c>
-      <c r="F97" s="23">
+      <c r="F97" s="22">
         <v>74.099999999999994</v>
       </c>
-      <c r="G97" s="23">
+      <c r="G97" s="22">
         <v>2</v>
       </c>
       <c r="H97" s="16">
@@ -5694,13 +5355,13 @@
       <c r="D98" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E98" s="23">
+      <c r="E98" s="22">
         <v>21</v>
       </c>
-      <c r="F98" s="23">
+      <c r="F98" s="22">
         <v>77.2</v>
       </c>
-      <c r="G98" s="23">
+      <c r="G98" s="22">
         <v>1.7999999999999972</v>
       </c>
       <c r="H98" s="16">
@@ -5735,13 +5396,13 @@
       <c r="D99" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E99" s="23">
+      <c r="E99" s="22">
         <v>15</v>
       </c>
-      <c r="F99" s="23">
+      <c r="F99" s="22">
         <v>76.3</v>
       </c>
-      <c r="G99" s="23">
+      <c r="G99" s="22">
         <v>8.7000000000000028</v>
       </c>
       <c r="H99" s="16">
@@ -5776,13 +5437,13 @@
       <c r="D100" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E100" s="23">
+      <c r="E100" s="22">
         <v>18.5</v>
       </c>
-      <c r="F100" s="23">
+      <c r="F100" s="22">
         <v>67.099999999999994</v>
       </c>
-      <c r="G100" s="23">
+      <c r="G100" s="22">
         <v>14.400000000000006</v>
       </c>
       <c r="H100" s="16">
@@ -5817,13 +5478,13 @@
       <c r="D101" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E101" s="23">
+      <c r="E101" s="22">
         <v>22.1</v>
       </c>
-      <c r="F101" s="23">
+      <c r="F101" s="22">
         <v>73.900000000000006</v>
       </c>
-      <c r="G101" s="23">
+      <c r="G101" s="22">
         <v>4</v>
       </c>
       <c r="H101" s="16">
@@ -5858,13 +5519,13 @@
       <c r="D102" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E102" s="23">
+      <c r="E102" s="22">
         <v>24.3</v>
       </c>
-      <c r="F102" s="23">
+      <c r="F102" s="22">
         <v>74</v>
       </c>
-      <c r="G102" s="23">
+      <c r="G102" s="22">
         <v>1.7000000000000028</v>
       </c>
       <c r="H102" s="16">
@@ -5899,13 +5560,13 @@
       <c r="D103" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E103" s="23">
+      <c r="E103" s="22">
         <v>24.8</v>
       </c>
-      <c r="F103" s="23">
+      <c r="F103" s="22">
         <v>71.7</v>
       </c>
-      <c r="G103" s="23">
+      <c r="G103" s="22">
         <v>3.5</v>
       </c>
       <c r="H103" s="16">
@@ -5940,13 +5601,13 @@
       <c r="D104" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E104" s="23">
+      <c r="E104" s="22">
         <v>4.68</v>
       </c>
-      <c r="F104" s="23">
+      <c r="F104" s="22">
         <v>54.52</v>
       </c>
-      <c r="G104" s="23">
+      <c r="G104" s="22">
         <v>40.799999999999997</v>
       </c>
       <c r="H104" s="16">
@@ -5981,13 +5642,13 @@
       <c r="D105" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E105" s="23">
+      <c r="E105" s="22">
         <v>16.899999999999999</v>
       </c>
-      <c r="F105" s="23">
+      <c r="F105" s="22">
         <v>62.699999999999996</v>
       </c>
-      <c r="G105" s="23">
+      <c r="G105" s="22">
         <v>20.400000000000006</v>
       </c>
       <c r="H105" s="16">
@@ -6022,13 +5683,13 @@
       <c r="D106" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E106" s="23">
+      <c r="E106" s="22">
         <v>25.7</v>
       </c>
-      <c r="F106" s="23">
+      <c r="F106" s="22">
         <v>73.7</v>
       </c>
-      <c r="G106" s="23">
+      <c r="G106" s="22">
         <v>0.59999999999999432</v>
       </c>
       <c r="H106" s="16">
@@ -6063,13 +5724,13 @@
       <c r="D107" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E107" s="23">
+      <c r="E107" s="22">
         <v>26.4</v>
       </c>
-      <c r="F107" s="23">
+      <c r="F107" s="22">
         <v>73.199999999999989</v>
       </c>
-      <c r="G107" s="23">
+      <c r="G107" s="22">
         <v>0.40000000000000568</v>
       </c>
       <c r="H107" s="16">
@@ -6104,13 +5765,13 @@
       <c r="D108" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E108" s="23">
+      <c r="E108" s="22">
         <v>25.8</v>
       </c>
-      <c r="F108" s="23">
+      <c r="F108" s="22">
         <v>73.2</v>
       </c>
-      <c r="G108" s="23">
+      <c r="G108" s="22">
         <v>1</v>
       </c>
       <c r="H108" s="16">
@@ -6145,13 +5806,13 @@
       <c r="D109" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E109" s="23">
+      <c r="E109" s="22">
         <v>17.5</v>
       </c>
-      <c r="F109" s="23">
+      <c r="F109" s="22">
         <v>67.900000000000006</v>
       </c>
-      <c r="G109" s="23">
+      <c r="G109" s="22">
         <v>14.599999999999994</v>
       </c>
       <c r="H109" s="16">
@@ -6186,13 +5847,13 @@
       <c r="D110" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E110" s="23">
+      <c r="E110" s="22">
         <v>22.3</v>
       </c>
-      <c r="F110" s="23">
+      <c r="F110" s="22">
         <v>76.5</v>
       </c>
-      <c r="G110" s="23">
+      <c r="G110" s="22">
         <v>1.2000000000000028</v>
       </c>
       <c r="H110" s="16">
@@ -6227,13 +5888,13 @@
       <c r="D111" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E111" s="23">
+      <c r="E111" s="22">
         <v>22.3</v>
       </c>
-      <c r="F111" s="23">
+      <c r="F111" s="22">
         <v>76.7</v>
       </c>
-      <c r="G111" s="23">
+      <c r="G111" s="22">
         <v>1</v>
       </c>
       <c r="H111" s="16">
@@ -6268,13 +5929,13 @@
       <c r="D112" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E112" s="23">
+      <c r="E112" s="22">
         <v>26.6</v>
       </c>
-      <c r="F112" s="23">
+      <c r="F112" s="22">
         <v>73.399000000000001</v>
       </c>
-      <c r="G112" s="23">
+      <c r="G112" s="22">
         <v>1.0000000000047748E-3</v>
       </c>
       <c r="H112" s="16">
@@ -6309,13 +5970,13 @@
       <c r="D113" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E113" s="23">
+      <c r="E113" s="22">
         <v>21.8</v>
       </c>
-      <c r="F113" s="23">
+      <c r="F113" s="22">
         <v>72.600000000000009</v>
       </c>
-      <c r="G113" s="23">
+      <c r="G113" s="22">
         <v>5.5999999999999943</v>
       </c>
       <c r="H113" s="16">
@@ -6350,13 +6011,13 @@
       <c r="D114" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E114" s="23">
+      <c r="E114" s="22">
         <v>22.6</v>
       </c>
-      <c r="F114" s="23">
+      <c r="F114" s="22">
         <v>75.699999999999989</v>
       </c>
-      <c r="G114" s="23">
+      <c r="G114" s="22">
         <v>1.7000000000000028</v>
       </c>
       <c r="H114" s="16">
@@ -6391,13 +6052,13 @@
       <c r="D115" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E115" s="23">
+      <c r="E115" s="22">
         <v>13.5</v>
       </c>
-      <c r="F115" s="23">
+      <c r="F115" s="22">
         <v>43.8</v>
       </c>
-      <c r="G115" s="23">
+      <c r="G115" s="22">
         <v>42.7</v>
       </c>
       <c r="H115" s="16">
@@ -6432,13 +6093,13 @@
       <c r="D116" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E116" s="23">
+      <c r="E116" s="22">
         <v>23.6</v>
       </c>
-      <c r="F116" s="23">
+      <c r="F116" s="22">
         <v>75.5</v>
       </c>
-      <c r="G116" s="23">
+      <c r="G116" s="22">
         <v>0.90000000000000568</v>
       </c>
       <c r="H116" s="16">
@@ -6473,13 +6134,13 @@
       <c r="D117" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E117" s="23">
+      <c r="E117" s="22">
         <v>23.6</v>
       </c>
-      <c r="F117" s="23">
+      <c r="F117" s="22">
         <v>75.800000000000011</v>
       </c>
-      <c r="G117" s="23">
+      <c r="G117" s="22">
         <v>0.59999999999999432</v>
       </c>
       <c r="H117" s="16">
@@ -6514,13 +6175,13 @@
       <c r="D118" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E118" s="23">
+      <c r="E118" s="22">
         <v>25.1</v>
       </c>
-      <c r="F118" s="23">
+      <c r="F118" s="22">
         <v>74.5</v>
       </c>
-      <c r="G118" s="23">
+      <c r="G118" s="22">
         <v>0.40000000000000568</v>
       </c>
       <c r="H118" s="16">
@@ -6555,13 +6216,13 @@
       <c r="D119" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E119" s="23">
+      <c r="E119" s="22">
         <v>24.6</v>
       </c>
-      <c r="F119" s="23">
+      <c r="F119" s="22">
         <v>74.800000000000011</v>
       </c>
-      <c r="G119" s="23">
+      <c r="G119" s="22">
         <v>0.59999999999999432</v>
       </c>
       <c r="H119" s="16">
@@ -6596,13 +6257,13 @@
       <c r="D120" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E120" s="23">
+      <c r="E120" s="22">
         <v>24.4</v>
       </c>
-      <c r="F120" s="23">
+      <c r="F120" s="22">
         <v>75.199999999999989</v>
       </c>
-      <c r="G120" s="23">
+      <c r="G120" s="22">
         <v>0.40000000000000568</v>
       </c>
       <c r="H120" s="16">
@@ -6637,13 +6298,13 @@
       <c r="D121" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E121" s="23">
+      <c r="E121" s="22">
         <v>23.6</v>
       </c>
-      <c r="F121" s="23">
+      <c r="F121" s="22">
         <v>76</v>
       </c>
-      <c r="G121" s="23">
+      <c r="G121" s="22">
         <v>0.40000000000000568</v>
       </c>
       <c r="H121" s="16">
@@ -6678,13 +6339,13 @@
       <c r="D122" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E122" s="23">
+      <c r="E122" s="22">
         <v>14.7</v>
       </c>
-      <c r="F122" s="23">
+      <c r="F122" s="22">
         <v>77</v>
       </c>
-      <c r="G122" s="23">
+      <c r="G122" s="22">
         <v>8.2999999999999972</v>
       </c>
       <c r="H122" s="16">
@@ -6719,13 +6380,13 @@
       <c r="D123" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E123" s="23">
+      <c r="E123" s="22">
         <v>15.2</v>
       </c>
-      <c r="F123" s="23">
+      <c r="F123" s="22">
         <v>77.8</v>
       </c>
-      <c r="G123" s="23">
+      <c r="G123" s="22">
         <v>7</v>
       </c>
       <c r="H123" s="16">
@@ -6760,13 +6421,13 @@
       <c r="D124" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E124" s="23">
+      <c r="E124" s="22">
         <v>20.7</v>
       </c>
-      <c r="F124" s="23">
+      <c r="F124" s="22">
         <v>76.8</v>
       </c>
-      <c r="G124" s="23">
+      <c r="G124" s="22">
         <v>2.5</v>
       </c>
       <c r="H124" s="16">
@@ -6801,13 +6462,13 @@
       <c r="D125" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E125" s="23">
+      <c r="E125" s="22">
         <v>19.2</v>
       </c>
-      <c r="F125" s="23">
+      <c r="F125" s="22">
         <v>77.599999999999994</v>
       </c>
-      <c r="G125" s="23">
+      <c r="G125" s="22">
         <v>3.2000000000000028</v>
       </c>
       <c r="H125" s="16">
@@ -6842,13 +6503,13 @@
       <c r="D126" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E126" s="23">
+      <c r="E126" s="22">
         <v>18.899999999999999</v>
       </c>
-      <c r="F126" s="23">
+      <c r="F126" s="22">
         <v>77.599999999999994</v>
       </c>
-      <c r="G126" s="23">
+      <c r="G126" s="22">
         <v>3.5</v>
       </c>
       <c r="H126" s="16">
@@ -6883,13 +6544,13 @@
       <c r="D127" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E127" s="23">
+      <c r="E127" s="22">
         <v>20</v>
       </c>
-      <c r="F127" s="23">
+      <c r="F127" s="22">
         <v>77.7</v>
       </c>
-      <c r="G127" s="23">
+      <c r="G127" s="22">
         <v>2.2999999999999972</v>
       </c>
       <c r="H127" s="16">
@@ -6924,13 +6585,13 @@
       <c r="D128" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E128" s="23">
+      <c r="E128" s="22">
         <v>21.3</v>
       </c>
-      <c r="F128" s="23">
+      <c r="F128" s="22">
         <v>76.7</v>
       </c>
-      <c r="G128" s="23">
+      <c r="G128" s="22">
         <v>2</v>
       </c>
       <c r="H128" s="16">
@@ -6965,13 +6626,13 @@
       <c r="D129" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E129" s="23">
+      <c r="E129" s="22">
         <v>23</v>
       </c>
-      <c r="F129" s="23">
+      <c r="F129" s="22">
         <v>76.2</v>
       </c>
-      <c r="G129" s="23">
+      <c r="G129" s="22">
         <v>0.79999999999999716</v>
       </c>
       <c r="H129" s="16">
@@ -7006,13 +6667,13 @@
       <c r="D130" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E130" s="23">
+      <c r="E130" s="22">
         <v>20.3</v>
       </c>
-      <c r="F130" s="23">
+      <c r="F130" s="22">
         <v>77.400000000000006</v>
       </c>
-      <c r="G130" s="23">
+      <c r="G130" s="22">
         <v>2.2999999999999972</v>
       </c>
       <c r="H130" s="16">
@@ -7047,13 +6708,13 @@
       <c r="D131" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E131" s="23">
+      <c r="E131" s="22">
         <v>23.4</v>
       </c>
-      <c r="F131" s="23">
+      <c r="F131" s="22">
         <v>75</v>
       </c>
-      <c r="G131" s="23">
+      <c r="G131" s="22">
         <v>1.5999999999999943</v>
       </c>
       <c r="H131" s="16">
@@ -7088,13 +6749,13 @@
       <c r="D132" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E132" s="23">
+      <c r="E132" s="22">
         <v>24.1</v>
       </c>
-      <c r="F132" s="23">
+      <c r="F132" s="22">
         <v>75.199999999999989</v>
       </c>
-      <c r="G132" s="23">
+      <c r="G132" s="22">
         <v>0.70000000000000284</v>
       </c>
       <c r="H132" s="16">
@@ -7129,13 +6790,13 @@
       <c r="D133" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E133" s="23">
+      <c r="E133" s="22">
         <v>24.8</v>
       </c>
-      <c r="F133" s="23">
+      <c r="F133" s="22">
         <v>75.2</v>
       </c>
-      <c r="G133" s="23">
+      <c r="G133" s="22">
         <v>0</v>
       </c>
       <c r="H133" s="16">
@@ -7170,13 +6831,13 @@
       <c r="D134" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E134" s="23">
+      <c r="E134" s="22">
         <v>23.9</v>
       </c>
-      <c r="F134" s="23">
+      <c r="F134" s="22">
         <v>75.099999999999994</v>
       </c>
-      <c r="G134" s="23">
+      <c r="G134" s="22">
         <v>1</v>
       </c>
       <c r="H134" s="16">
@@ -7211,13 +6872,13 @@
       <c r="D135" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E135" s="23">
+      <c r="E135" s="22">
         <v>24.5</v>
       </c>
-      <c r="F135" s="23">
+      <c r="F135" s="22">
         <v>74.900000000000006</v>
       </c>
-      <c r="G135" s="23">
+      <c r="G135" s="22">
         <v>0.59999999999999432</v>
       </c>
       <c r="H135" s="16">
@@ -7252,13 +6913,13 @@
       <c r="D136" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E136" s="23">
+      <c r="E136" s="22">
         <v>25.4</v>
       </c>
-      <c r="F136" s="23">
+      <c r="F136" s="22">
         <v>73.699999999999989</v>
       </c>
-      <c r="G136" s="23">
+      <c r="G136" s="22">
         <v>0.90000000000000568</v>
       </c>
       <c r="H136" s="16">
@@ -7293,13 +6954,13 @@
       <c r="D137" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E137" s="23">
+      <c r="E137" s="22">
         <v>24.3</v>
       </c>
-      <c r="F137" s="23">
+      <c r="F137" s="22">
         <v>74</v>
       </c>
-      <c r="G137" s="23">
+      <c r="G137" s="22">
         <v>1.7000000000000028</v>
       </c>
       <c r="H137" s="16">
@@ -7334,13 +6995,13 @@
       <c r="D138" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E138" s="23">
+      <c r="E138" s="22">
         <v>19.600000000000001</v>
       </c>
-      <c r="F138" s="23">
+      <c r="F138" s="22">
         <v>75.5</v>
       </c>
-      <c r="G138" s="23">
+      <c r="G138" s="22">
         <v>4.9000000000000057</v>
       </c>
       <c r="H138" s="16">
@@ -7375,13 +7036,13 @@
       <c r="D139" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E139" s="23">
+      <c r="E139" s="22">
         <v>24.1</v>
       </c>
-      <c r="F139" s="23">
+      <c r="F139" s="22">
         <v>73.900000000000006</v>
       </c>
-      <c r="G139" s="23">
+      <c r="G139" s="22">
         <v>2</v>
       </c>
       <c r="H139" s="16">
@@ -7416,13 +7077,13 @@
       <c r="D140" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E140" s="23">
+      <c r="E140" s="22">
         <v>26</v>
       </c>
-      <c r="F140" s="23">
+      <c r="F140" s="22">
         <v>73.2</v>
       </c>
-      <c r="G140" s="23">
+      <c r="G140" s="22">
         <v>0.79999999999999716</v>
       </c>
       <c r="H140" s="16">
@@ -7457,13 +7118,13 @@
       <c r="D141" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E141" s="23">
+      <c r="E141" s="22">
         <v>26.3</v>
       </c>
-      <c r="F141" s="23">
+      <c r="F141" s="22">
         <v>73</v>
       </c>
-      <c r="G141" s="23">
+      <c r="G141" s="22">
         <v>0.70000000000000284</v>
       </c>
       <c r="H141" s="16">
@@ -7498,13 +7159,13 @@
       <c r="D142" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E142" s="23">
+      <c r="E142" s="22">
         <v>25.8</v>
       </c>
-      <c r="F142" s="23">
+      <c r="F142" s="22">
         <v>73.600000000000009</v>
       </c>
-      <c r="G142" s="23">
+      <c r="G142" s="22">
         <v>0.59999999999999432</v>
       </c>
       <c r="H142" s="16">
@@ -7539,13 +7200,13 @@
       <c r="D143" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E143" s="23">
+      <c r="E143" s="22">
         <v>30.9</v>
       </c>
-      <c r="F143" s="23">
+      <c r="F143" s="22">
         <v>69.099999999999994</v>
       </c>
-      <c r="G143" s="23">
+      <c r="G143" s="22">
         <v>0</v>
       </c>
       <c r="H143" s="16">
@@ -7580,13 +7241,13 @@
       <c r="D144" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E144" s="23">
+      <c r="E144" s="22">
         <v>23.7</v>
       </c>
-      <c r="F144" s="23">
+      <c r="F144" s="22">
         <v>75.599999999999994</v>
       </c>
-      <c r="G144" s="23">
+      <c r="G144" s="22">
         <v>0.70000000000000284</v>
       </c>
       <c r="H144" s="16">
@@ -7621,13 +7282,13 @@
       <c r="D145" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E145" s="23">
+      <c r="E145" s="22">
         <v>23</v>
       </c>
-      <c r="F145" s="23">
+      <c r="F145" s="22">
         <v>75.599999999999994</v>
       </c>
-      <c r="G145" s="23">
+      <c r="G145" s="22">
         <v>1.4000000000000057</v>
       </c>
       <c r="H145" s="16">
@@ -7662,13 +7323,13 @@
       <c r="D146" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E146" s="23">
+      <c r="E146" s="22">
         <v>17.5</v>
       </c>
-      <c r="F146" s="23">
+      <c r="F146" s="22">
         <v>75.2</v>
       </c>
-      <c r="G146" s="23">
+      <c r="G146" s="22">
         <v>7.2999999999999972</v>
       </c>
       <c r="H146" s="16">
@@ -7703,13 +7364,13 @@
       <c r="D147" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E147" s="23">
+      <c r="E147" s="22">
         <v>4.0599999999999996</v>
       </c>
-      <c r="F147" s="23">
+      <c r="F147" s="22">
         <v>30.640000000000004</v>
       </c>
-      <c r="G147" s="23">
+      <c r="G147" s="22">
         <v>65.3</v>
       </c>
       <c r="H147" s="16">
@@ -7744,13 +7405,13 @@
       <c r="D148" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E148" s="23">
+      <c r="E148" s="22">
         <v>16.2</v>
       </c>
-      <c r="F148" s="23">
+      <c r="F148" s="22">
         <v>72.599999999999994</v>
       </c>
-      <c r="G148" s="23">
+      <c r="G148" s="22">
         <v>11.200000000000003</v>
       </c>
       <c r="H148" s="16">
@@ -7785,13 +7446,13 @@
       <c r="D149" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E149" s="23">
+      <c r="E149" s="22">
         <v>21.2</v>
       </c>
-      <c r="F149" s="23">
+      <c r="F149" s="22">
         <v>75.599999999999994</v>
       </c>
-      <c r="G149" s="23">
+      <c r="G149" s="22">
         <v>3.2000000000000028</v>
       </c>
       <c r="H149" s="16">
@@ -7826,13 +7487,13 @@
       <c r="D150" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E150" s="23">
+      <c r="E150" s="22">
         <v>22.7</v>
       </c>
-      <c r="F150" s="23">
+      <c r="F150" s="22">
         <v>75.7</v>
       </c>
-      <c r="G150" s="23">
+      <c r="G150" s="22">
         <v>1.5999999999999943</v>
       </c>
       <c r="H150" s="16">
@@ -7867,13 +7528,13 @@
       <c r="D151" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E151" s="23">
+      <c r="E151" s="22">
         <v>26.4</v>
       </c>
-      <c r="F151" s="23">
+      <c r="F151" s="22">
         <v>73.099999999999994</v>
       </c>
-      <c r="G151" s="23">
+      <c r="G151" s="22">
         <v>0.5</v>
       </c>
       <c r="H151" s="16">
@@ -7893,3136 +7554,6 @@
       </c>
       <c r="M151" s="16">
         <v>4.9620999999999995</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13">
-      <c r="A152" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C152" s="2">
-        <v>1</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E152" s="23">
-        <v>7.85</v>
-      </c>
-      <c r="F152" s="23">
-        <v>24.65</v>
-      </c>
-      <c r="G152" s="23">
-        <v>67.5</v>
-      </c>
-      <c r="H152" s="16">
-        <v>4.3793103448275863</v>
-      </c>
-      <c r="I152" s="18">
-        <v>0.21492307692307677</v>
-      </c>
-      <c r="J152" s="18">
-        <v>4.9076923076923039E-2</v>
-      </c>
-      <c r="K152" s="16">
-        <v>0.27753718697043883</v>
-      </c>
-      <c r="L152" s="16">
-        <v>5.3109999999999982</v>
-      </c>
-      <c r="M152" s="16">
-        <v>3.836999999999998</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13">
-      <c r="A153" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C153" s="2">
-        <v>1</v>
-      </c>
-      <c r="D153" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E153" s="23">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="F153" s="23">
-        <v>76.199999999999989</v>
-      </c>
-      <c r="G153" s="23">
-        <v>5.2000000000000028</v>
-      </c>
-      <c r="H153" s="16">
-        <v>5.35</v>
-      </c>
-      <c r="I153" s="18">
-        <v>0.51521934865900443</v>
-      </c>
-      <c r="J153" s="18">
-        <v>9.6302681992337283E-2</v>
-      </c>
-      <c r="K153" s="16">
-        <v>0.4339901477832509</v>
-      </c>
-      <c r="L153" s="16">
-        <v>6.0899999999999981</v>
-      </c>
-      <c r="M153" s="16">
-        <v>3.447000000000001</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13">
-      <c r="A154" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C154" s="2">
-        <v>1</v>
-      </c>
-      <c r="D154" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E154" s="23">
-        <v>10.3</v>
-      </c>
-      <c r="F154" s="23">
-        <v>36.599999999999994</v>
-      </c>
-      <c r="G154" s="23">
-        <v>53.1</v>
-      </c>
-      <c r="H154" s="16">
-        <v>4.71875</v>
-      </c>
-      <c r="I154" s="18">
-        <v>0.26208045977011468</v>
-      </c>
-      <c r="J154" s="18">
-        <v>5.554022988505742E-2</v>
-      </c>
-      <c r="K154" s="16">
-        <v>0.3075579549063191</v>
-      </c>
-      <c r="L154" s="16">
-        <v>6.298</v>
-      </c>
-      <c r="M154" s="16">
-        <v>4.3610000000000024</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13">
-      <c r="A155" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C155" s="2">
-        <v>1</v>
-      </c>
-      <c r="D155" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E155" s="23">
-        <v>15.3</v>
-      </c>
-      <c r="F155" s="23">
-        <v>76.8</v>
-      </c>
-      <c r="G155" s="23">
-        <v>7.9000000000000057</v>
-      </c>
-      <c r="H155" s="16">
-        <v>5.5112107623318387</v>
-      </c>
-      <c r="I155" s="18">
-        <v>0.52849263351749509</v>
-      </c>
-      <c r="J155" s="18">
-        <v>9.5894106813996252E-2</v>
-      </c>
-      <c r="K155" s="16">
-        <v>0.4354633401221995</v>
-      </c>
-      <c r="L155" s="16">
-        <v>7.8559999999999999</v>
-      </c>
-      <c r="M155" s="16">
-        <v>4.4350000000000005</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13">
-      <c r="A156" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C156" s="2">
-        <v>1</v>
-      </c>
-      <c r="D156" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E156" s="23">
-        <v>24.5</v>
-      </c>
-      <c r="F156" s="23">
-        <v>68.099999999999994</v>
-      </c>
-      <c r="G156" s="23">
-        <v>7.4000000000000057</v>
-      </c>
-      <c r="H156" s="16">
-        <v>6.1673151750972757</v>
-      </c>
-      <c r="I156" s="18">
-        <v>0.4881930184804939</v>
-      </c>
-      <c r="J156" s="18">
-        <v>7.9158110882957058E-2</v>
-      </c>
-      <c r="K156" s="16">
-        <v>0.5700293829578843</v>
-      </c>
-      <c r="L156" s="16">
-        <v>6.1259999999999994</v>
-      </c>
-      <c r="M156" s="16">
-        <v>2.6340000000000003</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13">
-      <c r="A157" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C157" s="2">
-        <v>1</v>
-      </c>
-      <c r="D157" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E157" s="23">
-        <v>27.9</v>
-      </c>
-      <c r="F157" s="23">
-        <v>65.800000000000011</v>
-      </c>
-      <c r="G157" s="23">
-        <v>6.2999999999999972</v>
-      </c>
-      <c r="H157" s="16">
-        <v>7.1225382932166301</v>
-      </c>
-      <c r="I157" s="18">
-        <v>0.88822881355931993</v>
-      </c>
-      <c r="J157" s="18">
-        <v>0.12470677966101666</v>
-      </c>
-      <c r="K157" s="16">
-        <v>0.73353751914241971</v>
-      </c>
-      <c r="L157" s="16">
-        <v>5.2240000000000002</v>
-      </c>
-      <c r="M157" s="16">
-        <v>1.3919999999999995</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13">
-      <c r="A158" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C158" s="2">
-        <v>1</v>
-      </c>
-      <c r="D158" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E158" s="23">
-        <v>26.2</v>
-      </c>
-      <c r="F158" s="23">
-        <v>56.099999999999994</v>
-      </c>
-      <c r="G158" s="23">
-        <v>17.700000000000003</v>
-      </c>
-      <c r="H158" s="16">
-        <v>8.2405063291139271</v>
-      </c>
-      <c r="I158" s="18">
-        <v>0.37975000000000003</v>
-      </c>
-      <c r="J158" s="18">
-        <v>4.6083333333333323E-2</v>
-      </c>
-      <c r="K158" s="16">
-        <v>0.68424908424908404</v>
-      </c>
-      <c r="L158" s="16">
-        <v>6.8249999999999993</v>
-      </c>
-      <c r="M158" s="16">
-        <v>2.1550000000000011</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13">
-      <c r="A159" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C159" s="2">
-        <v>1</v>
-      </c>
-      <c r="D159" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E159" s="23">
-        <v>25.3</v>
-      </c>
-      <c r="F159" s="23">
-        <v>57</v>
-      </c>
-      <c r="G159" s="23">
-        <v>17.700000000000003</v>
-      </c>
-      <c r="H159" s="16">
-        <v>7.4117647058823524</v>
-      </c>
-      <c r="I159" s="18">
-        <v>0.41185074626865004</v>
-      </c>
-      <c r="J159" s="18">
-        <v>5.5567164179103581E-2</v>
-      </c>
-      <c r="K159" s="16">
-        <v>0.71795863135511284</v>
-      </c>
-      <c r="L159" s="16">
-        <v>5.173</v>
-      </c>
-      <c r="M159" s="16">
-        <v>1.4590000000000014</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13">
-      <c r="A160" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C160" s="2">
-        <v>1</v>
-      </c>
-      <c r="D160" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E160" s="23">
-        <v>24.3</v>
-      </c>
-      <c r="F160" s="23">
-        <v>75.7</v>
-      </c>
-      <c r="G160" s="23">
-        <v>0</v>
-      </c>
-      <c r="H160" s="16">
-        <v>5.6679536679536673</v>
-      </c>
-      <c r="I160" s="18">
-        <v>0.61640492957746362</v>
-      </c>
-      <c r="J160" s="18">
-        <v>0.10875264084507023</v>
-      </c>
-      <c r="K160" s="16">
-        <v>0.50337101960377562</v>
-      </c>
-      <c r="L160" s="16">
-        <v>9.6410000000000018</v>
-      </c>
-      <c r="M160" s="16">
-        <v>4.7880000000000003</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15">
-      <c r="A161" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C161" s="2">
-        <v>1</v>
-      </c>
-      <c r="D161" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E161" s="23">
-        <v>25</v>
-      </c>
-      <c r="F161" s="23">
-        <v>75</v>
-      </c>
-      <c r="G161" s="23">
-        <v>0</v>
-      </c>
-      <c r="H161" s="16">
-        <v>5.66023166023166</v>
-      </c>
-      <c r="I161" s="18">
-        <v>0.61755597722960143</v>
-      </c>
-      <c r="J161" s="18">
-        <v>0.1091043643263757</v>
-      </c>
-      <c r="K161" s="16">
-        <v>0.51658767772511849</v>
-      </c>
-      <c r="L161" s="16">
-        <v>6.7519999999999989</v>
-      </c>
-      <c r="M161" s="16">
-        <v>3.2639999999999993</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15">
-      <c r="A162" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C162" s="2">
-        <v>1</v>
-      </c>
-      <c r="D162" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E162" s="23">
-        <v>28.4</v>
-      </c>
-      <c r="F162" s="23">
-        <v>71.599999999999994</v>
-      </c>
-      <c r="G162" s="23">
-        <v>0</v>
-      </c>
-      <c r="H162" s="16">
-        <v>5.1724137931034484</v>
-      </c>
-      <c r="I162" s="18">
-        <v>0.53318181818181909</v>
-      </c>
-      <c r="J162" s="18">
-        <v>0.10308181818181836</v>
-      </c>
-      <c r="K162" s="16">
-        <v>0.50596687773989302</v>
-      </c>
-      <c r="L162" s="16">
-        <v>8.2119999999999997</v>
-      </c>
-      <c r="M162" s="16">
-        <v>4.0569999999999986</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15">
-      <c r="A163" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C163" s="2">
-        <v>1</v>
-      </c>
-      <c r="D163" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E163" s="23">
-        <v>11.8</v>
-      </c>
-      <c r="F163" s="23">
-        <v>80.8</v>
-      </c>
-      <c r="G163" s="23">
-        <v>7.4000000000000057</v>
-      </c>
-      <c r="H163" s="16">
-        <v>4.9473684210526319</v>
-      </c>
-      <c r="I163" s="18">
-        <v>0.29673134328358197</v>
-      </c>
-      <c r="J163" s="18">
-        <v>5.9977611940298478E-2</v>
-      </c>
-      <c r="K163" s="16">
-        <v>0.32569245463228247</v>
-      </c>
-      <c r="L163" s="16">
-        <v>8.3759999999999994</v>
-      </c>
-      <c r="M163" s="16">
-        <v>5.6480000000000015</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15">
-      <c r="A164" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C164" s="2">
-        <v>1</v>
-      </c>
-      <c r="D164" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E164" s="23">
-        <v>28.2</v>
-      </c>
-      <c r="F164" s="23">
-        <v>71.8</v>
-      </c>
-      <c r="G164" s="23">
-        <v>0</v>
-      </c>
-      <c r="H164" s="16">
-        <v>4.9733840304182504</v>
-      </c>
-      <c r="I164" s="18">
-        <v>0.56498853868194787</v>
-      </c>
-      <c r="J164" s="18">
-        <v>0.11360243553008585</v>
-      </c>
-      <c r="K164" s="16">
-        <v>0.47796078431372557</v>
-      </c>
-      <c r="L164" s="16">
-        <v>6.375</v>
-      </c>
-      <c r="M164" s="16">
-        <v>3.3279999999999994</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15">
-      <c r="A165" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C165" s="2">
-        <v>1</v>
-      </c>
-      <c r="D165" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E165" s="23">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="F165" s="23">
-        <v>65.8</v>
-      </c>
-      <c r="G165" s="23">
-        <v>0</v>
-      </c>
-      <c r="H165" s="16">
-        <v>5.5337620578778139</v>
-      </c>
-      <c r="I165" s="18">
-        <v>0.7055498251748259</v>
-      </c>
-      <c r="J165" s="18">
-        <v>0.12749912587412598</v>
-      </c>
-      <c r="K165" s="16">
-        <v>0.64065708418891165</v>
-      </c>
-      <c r="L165" s="16">
-        <v>3.8960000000000008</v>
-      </c>
-      <c r="M165" s="16">
-        <v>1.4000000000000004</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15">
-      <c r="A166" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C166" s="2">
-        <v>1</v>
-      </c>
-      <c r="D166" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E166" s="23">
-        <v>11.5</v>
-      </c>
-      <c r="F166" s="23">
-        <v>22</v>
-      </c>
-      <c r="G166" s="23">
-        <v>66.5</v>
-      </c>
-      <c r="H166" s="16">
-        <v>3.919354838709677</v>
-      </c>
-      <c r="I166" s="18">
-        <v>0.21846254071661192</v>
-      </c>
-      <c r="J166" s="18">
-        <v>5.5739413680781648E-2</v>
-      </c>
-      <c r="K166" s="22">
-        <v>0.27030800821355244</v>
-      </c>
-      <c r="L166" s="16">
-        <v>12.174999999999999</v>
-      </c>
-      <c r="M166" s="16">
-        <v>8.8839999999999986</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15">
-      <c r="A167" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B167" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C167" s="2">
-        <v>5</v>
-      </c>
-      <c r="D167" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E167" s="23">
-        <v>20</v>
-      </c>
-      <c r="F167" s="23">
-        <v>74.5</v>
-      </c>
-      <c r="G167" s="23">
-        <v>5.5</v>
-      </c>
-      <c r="H167" s="16">
-        <v>5.2960893854748603</v>
-      </c>
-      <c r="I167" s="18">
-        <v>0.40232195121951086</v>
-      </c>
-      <c r="J167" s="18">
-        <v>7.5965853658536336E-2</v>
-      </c>
-      <c r="K167" s="22">
-        <v>0.40490411820182337</v>
-      </c>
-      <c r="L167" s="16">
-        <v>15.905000000000001</v>
-      </c>
-      <c r="M167" s="16">
-        <v>9.4649999999999999</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15">
-      <c r="A168" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B168" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C168" s="2">
-        <v>1</v>
-      </c>
-      <c r="D168" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E168" s="23">
-        <v>22.8</v>
-      </c>
-      <c r="F168" s="23">
-        <v>75.7</v>
-      </c>
-      <c r="G168" s="23">
-        <v>1.5</v>
-      </c>
-      <c r="H168" s="16">
-        <v>5.0952380952380949</v>
-      </c>
-      <c r="I168" s="18">
-        <v>0.40174844720496866</v>
-      </c>
-      <c r="J168" s="18">
-        <v>7.8847826086956466E-2</v>
-      </c>
-      <c r="K168" s="22">
-        <v>0.43746381007527507</v>
-      </c>
-      <c r="L168" s="16">
-        <v>13.816000000000001</v>
-      </c>
-      <c r="M168" s="16">
-        <v>7.7720000000000002</v>
-      </c>
-    </row>
-    <row r="169" spans="1:15">
-      <c r="A169" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C169" s="2">
-        <v>1</v>
-      </c>
-      <c r="D169" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E169" s="23">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="F169" s="23">
-        <v>75.400000000000006</v>
-      </c>
-      <c r="G169" s="23">
-        <v>5.2000000000000028</v>
-      </c>
-      <c r="H169" s="16">
-        <v>5.2954545454545459</v>
-      </c>
-      <c r="I169" s="18">
-        <v>0.48941283292978327</v>
-      </c>
-      <c r="J169" s="18">
-        <v>9.2421307506053485E-2</v>
-      </c>
-      <c r="K169" s="22">
-        <v>0.45002426006792801</v>
-      </c>
-      <c r="L169" s="16">
-        <v>12.366</v>
-      </c>
-      <c r="M169" s="16">
-        <v>6.8010000000000019</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15">
-      <c r="A170" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B170" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C170" s="2">
-        <v>1</v>
-      </c>
-      <c r="D170" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E170" s="23">
-        <v>26.9</v>
-      </c>
-      <c r="F170" s="23">
-        <v>73.099999999999994</v>
-      </c>
-      <c r="G170" s="23">
-        <v>0</v>
-      </c>
-      <c r="H170" s="16">
-        <v>5.0200803212851408</v>
-      </c>
-      <c r="I170" s="18">
-        <v>0.52894467213114837</v>
-      </c>
-      <c r="J170" s="18">
-        <v>0.10536577868852476</v>
-      </c>
-      <c r="K170" s="22">
-        <v>0.48583682425693192</v>
-      </c>
-      <c r="L170" s="16">
-        <v>10.025999999999998</v>
-      </c>
-      <c r="M170" s="16">
-        <v>5.1549999999999994</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15">
-      <c r="A171" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B171" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C171" s="2">
-        <v>1</v>
-      </c>
-      <c r="D171" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E171" s="23">
-        <v>25.3</v>
-      </c>
-      <c r="F171" s="23">
-        <v>72.7</v>
-      </c>
-      <c r="G171" s="23">
-        <v>2</v>
-      </c>
-      <c r="H171" s="16">
-        <v>5.2350746268656714</v>
-      </c>
-      <c r="I171" s="18">
-        <v>0.57651113585746094</v>
-      </c>
-      <c r="J171" s="18">
-        <v>0.11012472160356346</v>
-      </c>
-      <c r="K171" s="22">
-        <v>0.50204963438954131</v>
-      </c>
-      <c r="L171" s="16">
-        <v>18.052</v>
-      </c>
-      <c r="M171" s="27">
-        <v>8.9890000000000008</v>
-      </c>
-      <c r="O171" s="20"/>
-    </row>
-    <row r="172" spans="1:15">
-      <c r="A172" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B172" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C172" s="2">
-        <v>1</v>
-      </c>
-      <c r="D172" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E172" s="23">
-        <v>25.2</v>
-      </c>
-      <c r="F172" s="23">
-        <v>74.5</v>
-      </c>
-      <c r="G172" s="23">
-        <v>0.29999999999999716</v>
-      </c>
-      <c r="H172" s="16">
-        <v>6.0408163265306127</v>
-      </c>
-      <c r="I172" s="18">
-        <v>0.71490058479532226</v>
-      </c>
-      <c r="J172" s="18">
-        <v>0.11834502923976617</v>
-      </c>
-      <c r="K172" s="22">
-        <v>0.5720434131736527</v>
-      </c>
-      <c r="L172" s="16">
-        <v>10.688000000000001</v>
-      </c>
-      <c r="M172" s="27">
-        <v>4.5739999999999998</v>
-      </c>
-      <c r="O172" s="20"/>
-    </row>
-    <row r="173" spans="1:15">
-      <c r="A173" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="B173" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C173" s="2">
-        <v>1</v>
-      </c>
-      <c r="D173" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E173" s="23">
-        <v>26.1</v>
-      </c>
-      <c r="F173" s="23">
-        <v>72.199999999999989</v>
-      </c>
-      <c r="G173" s="23">
-        <v>1.7000000000000028</v>
-      </c>
-      <c r="H173" s="16">
-        <v>5.8727272727272721</v>
-      </c>
-      <c r="I173" s="18">
-        <v>0.53028608247422726</v>
-      </c>
-      <c r="J173" s="18">
-        <v>9.0296391752577407E-2</v>
-      </c>
-      <c r="K173" s="26">
-        <v>0.50758341759352887</v>
-      </c>
-      <c r="L173" s="26">
-        <v>9.8899999999999988</v>
-      </c>
-      <c r="M173" s="26">
-        <v>4.8699999999999992</v>
-      </c>
-      <c r="O173" s="20"/>
-    </row>
-    <row r="174" spans="1:15">
-      <c r="A174" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="B174" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C174" s="2">
-        <v>1</v>
-      </c>
-      <c r="D174" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E174" s="23">
-        <v>25.4</v>
-      </c>
-      <c r="F174" s="23">
-        <v>74.599999999999994</v>
-      </c>
-      <c r="G174" s="23">
-        <v>0</v>
-      </c>
-      <c r="H174" s="16">
-        <v>6.3923076923076927</v>
-      </c>
-      <c r="I174" s="18">
-        <v>0.68675094339622544</v>
-      </c>
-      <c r="J174" s="18">
-        <v>0.10743396226415079</v>
-      </c>
-      <c r="K174" s="26">
-        <v>0.51049963794351905</v>
-      </c>
-      <c r="L174" s="26">
-        <v>13.809999999999999</v>
-      </c>
-      <c r="M174" s="26">
-        <v>6.7600000000000016</v>
-      </c>
-      <c r="O174" s="20"/>
-    </row>
-    <row r="175" spans="1:15">
-      <c r="A175" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="B175" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C175" s="2">
-        <v>4</v>
-      </c>
-      <c r="D175" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E175" s="23">
-        <v>26.2</v>
-      </c>
-      <c r="F175" s="23">
-        <v>73.8</v>
-      </c>
-      <c r="G175" s="23">
-        <v>0</v>
-      </c>
-      <c r="H175" s="16">
-        <v>6.1359223300970882</v>
-      </c>
-      <c r="I175" s="18">
-        <v>0.52693198992443335</v>
-      </c>
-      <c r="J175" s="18">
-        <v>8.587657430730479E-2</v>
-      </c>
-      <c r="K175" s="26">
-        <v>0.47435897435897417</v>
-      </c>
-      <c r="L175" s="26">
-        <v>11.7</v>
-      </c>
-      <c r="M175" s="26">
-        <v>6.1500000000000021</v>
-      </c>
-      <c r="O175" s="20"/>
-    </row>
-    <row r="176" spans="1:15">
-      <c r="A176" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="B176" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C176" s="2">
-        <v>1</v>
-      </c>
-      <c r="D176" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E176" s="23">
-        <v>24.8</v>
-      </c>
-      <c r="F176" s="23">
-        <v>75.2</v>
-      </c>
-      <c r="G176" s="23">
-        <v>0</v>
-      </c>
-      <c r="H176" s="16">
-        <v>5.4297520661157028</v>
-      </c>
-      <c r="I176" s="18">
-        <v>0.54924601366742587</v>
-      </c>
-      <c r="J176" s="18">
-        <v>0.10115489749430522</v>
-      </c>
-      <c r="K176" s="26">
-        <v>0.5025380710659898</v>
-      </c>
-      <c r="L176" s="26">
-        <v>9.85</v>
-      </c>
-      <c r="M176" s="26">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="O176" s="20"/>
-    </row>
-    <row r="177" spans="1:15">
-      <c r="A177" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="B177" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C177" s="2">
-        <v>5</v>
-      </c>
-      <c r="D177" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E177" s="23">
-        <v>26.8</v>
-      </c>
-      <c r="F177" s="23">
-        <v>73.2</v>
-      </c>
-      <c r="G177" s="23">
-        <v>0</v>
-      </c>
-      <c r="H177" s="16">
-        <v>5.1344537815126055</v>
-      </c>
-      <c r="I177" s="18">
-        <v>0.50726679104477601</v>
-      </c>
-      <c r="J177" s="18">
-        <v>9.8796641791044748E-2</v>
-      </c>
-      <c r="K177" s="26">
-        <v>0.46775658492279731</v>
-      </c>
-      <c r="L177" s="26">
-        <v>11.01</v>
-      </c>
-      <c r="M177" s="26">
-        <v>5.8600000000000012</v>
-      </c>
-      <c r="O177" s="20"/>
-    </row>
-    <row r="178" spans="1:15">
-      <c r="A178" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="B178" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C178" s="2">
-        <v>1</v>
-      </c>
-      <c r="D178" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E178" s="23">
-        <v>27.7</v>
-      </c>
-      <c r="F178" s="23">
-        <v>72.3</v>
-      </c>
-      <c r="G178" s="23">
-        <v>0</v>
-      </c>
-      <c r="H178" s="16">
-        <v>4.5104895104895109</v>
-      </c>
-      <c r="I178" s="18">
-        <v>0.53961614173228323</v>
-      </c>
-      <c r="J178" s="18">
-        <v>0.11963582677165348</v>
-      </c>
-      <c r="K178" s="26">
-        <v>0.48556767158434894</v>
-      </c>
-      <c r="L178" s="26">
-        <v>15.590000000000002</v>
-      </c>
-      <c r="M178" s="26">
-        <v>8.0200000000000014</v>
-      </c>
-      <c r="O178" s="20"/>
-    </row>
-    <row r="179" spans="1:15">
-      <c r="A179" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B179" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="C179" s="2">
-        <v>1</v>
-      </c>
-      <c r="D179" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E179" s="23">
-        <v>24.3</v>
-      </c>
-      <c r="F179" s="23">
-        <v>75.7</v>
-      </c>
-      <c r="G179" s="23">
-        <v>0</v>
-      </c>
-      <c r="H179" s="16">
-        <v>5.1355932203389836</v>
-      </c>
-      <c r="I179" s="18">
-        <v>0.51280883602378968</v>
-      </c>
-      <c r="J179" s="18">
-        <v>9.9853865760407889E-2</v>
-      </c>
-      <c r="K179" s="26">
-        <v>0.46545226130653261</v>
-      </c>
-      <c r="L179" s="26">
-        <v>15.920000000000002</v>
-      </c>
-      <c r="M179" s="26">
-        <v>8.5100000000000016</v>
-      </c>
-      <c r="O179" s="20"/>
-    </row>
-    <row r="180" spans="1:15">
-      <c r="A180" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B180" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C180" s="2">
-        <v>1</v>
-      </c>
-      <c r="D180" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E180" s="23">
-        <v>27.3</v>
-      </c>
-      <c r="F180" s="23">
-        <v>72.7</v>
-      </c>
-      <c r="G180" s="23">
-        <v>0</v>
-      </c>
-      <c r="H180" s="16">
-        <v>5.0672268907563023</v>
-      </c>
-      <c r="I180" s="18">
-        <v>0.51070408163265335</v>
-      </c>
-      <c r="J180" s="18">
-        <v>0.10078571428571434</v>
-      </c>
-      <c r="K180" s="26">
-        <v>0.4210150107219443</v>
-      </c>
-      <c r="L180" s="26">
-        <v>13.99</v>
-      </c>
-      <c r="M180" s="26">
-        <v>8.1</v>
-      </c>
-      <c r="O180" s="20"/>
-    </row>
-    <row r="181" spans="1:15">
-      <c r="A181" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B181" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C181" s="2">
-        <v>1</v>
-      </c>
-      <c r="D181" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E181" s="23">
-        <v>29</v>
-      </c>
-      <c r="F181" s="23">
-        <v>71</v>
-      </c>
-      <c r="G181" s="23">
-        <v>0</v>
-      </c>
-      <c r="H181" s="16">
-        <v>4.9159663865546221</v>
-      </c>
-      <c r="I181" s="18">
-        <v>0.4942910447761189</v>
-      </c>
-      <c r="J181" s="18">
-        <v>0.10054809286898829</v>
-      </c>
-      <c r="K181" s="26">
-        <v>0.43983957219251324</v>
-      </c>
-      <c r="L181" s="26">
-        <v>14.96</v>
-      </c>
-      <c r="M181" s="26">
-        <v>8.3800000000000026</v>
-      </c>
-      <c r="O181" s="20"/>
-    </row>
-    <row r="182" spans="1:15">
-      <c r="A182" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B182" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C182" s="2">
-        <v>1</v>
-      </c>
-      <c r="D182" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E182" s="23">
-        <v>23</v>
-      </c>
-      <c r="F182" s="23">
-        <v>76.998000000000005</v>
-      </c>
-      <c r="G182" s="23">
-        <v>1.9999999999953388E-3</v>
-      </c>
-      <c r="H182" s="16">
-        <v>5.7735849056603774</v>
-      </c>
-      <c r="I182" s="18">
-        <v>0.52464615384615398</v>
-      </c>
-      <c r="J182" s="18">
-        <v>9.0870085470085488E-2</v>
-      </c>
-      <c r="K182" s="26">
-        <v>0.39885339885339893</v>
-      </c>
-      <c r="L182" s="26">
-        <v>12.21</v>
-      </c>
-      <c r="M182" s="26">
-        <v>7.34</v>
-      </c>
-      <c r="O182" s="20"/>
-    </row>
-    <row r="183" spans="1:15">
-      <c r="A183" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B183" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C183" s="2">
-        <v>1</v>
-      </c>
-      <c r="D183" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E183" s="23">
-        <v>25.6</v>
-      </c>
-      <c r="F183" s="23">
-        <v>74.400000000000006</v>
-      </c>
-      <c r="G183" s="23">
-        <v>0</v>
-      </c>
-      <c r="H183" s="16">
-        <v>5.4473684210526319</v>
-      </c>
-      <c r="I183" s="18">
-        <v>0.52703754266211666</v>
-      </c>
-      <c r="J183" s="18">
-        <v>9.6750853242320925E-2</v>
-      </c>
-      <c r="K183" s="26">
-        <v>0.44110479285134035</v>
-      </c>
-      <c r="L183" s="26">
-        <v>12.31</v>
-      </c>
-      <c r="M183" s="26">
-        <v>6.8800000000000008</v>
-      </c>
-      <c r="O183" s="20"/>
-    </row>
-    <row r="184" spans="1:15">
-      <c r="A184" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B184" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="C184" s="2">
-        <v>1</v>
-      </c>
-      <c r="D184" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E184" s="23">
-        <v>30.7</v>
-      </c>
-      <c r="F184" s="23">
-        <v>69.3</v>
-      </c>
-      <c r="G184" s="23">
-        <v>0</v>
-      </c>
-      <c r="H184" s="16">
-        <v>5.0508474576271194</v>
-      </c>
-      <c r="I184" s="18">
-        <v>0.49339746835442977</v>
-      </c>
-      <c r="J184" s="18">
-        <v>9.7686075949366957E-2</v>
-      </c>
-      <c r="K184" s="26">
-        <v>0.47416413373860195</v>
-      </c>
-      <c r="L184" s="26">
-        <v>13.16</v>
-      </c>
-      <c r="M184" s="26">
-        <v>6.9199999999999982</v>
-      </c>
-      <c r="O184" s="20"/>
-    </row>
-    <row r="185" spans="1:15">
-      <c r="A185" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="B185" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="C185" s="2">
-        <v>1</v>
-      </c>
-      <c r="D185" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E185" s="23">
-        <v>36.9</v>
-      </c>
-      <c r="F185" s="23">
-        <v>63.1</v>
-      </c>
-      <c r="G185" s="23">
-        <v>0</v>
-      </c>
-      <c r="H185" s="16">
-        <v>7.5714285714285712</v>
-      </c>
-      <c r="I185" s="18">
-        <v>0.64163927335640092</v>
-      </c>
-      <c r="J185" s="18">
-        <v>8.4744809688581252E-2</v>
-      </c>
-      <c r="K185" s="26">
-        <v>0.40911528150134047</v>
-      </c>
-      <c r="L185" s="26">
-        <v>18.649999999999999</v>
-      </c>
-      <c r="M185" s="26">
-        <v>11.02</v>
-      </c>
-      <c r="O185" s="20"/>
-    </row>
-    <row r="186" spans="1:15">
-      <c r="A186" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="B186" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C186" s="2">
-        <v>1</v>
-      </c>
-      <c r="D186" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E186" s="23">
-        <v>20.2</v>
-      </c>
-      <c r="F186" s="23">
-        <v>45.7</v>
-      </c>
-      <c r="G186" s="23">
-        <v>34.099999999999994</v>
-      </c>
-      <c r="H186" s="16">
-        <v>8.1111111111111107</v>
-      </c>
-      <c r="I186" s="18">
-        <v>0.40489819156061607</v>
-      </c>
-      <c r="J186" s="18">
-        <v>4.9918955123911569E-2</v>
-      </c>
-      <c r="K186" s="26">
-        <v>0.37600000000000006</v>
-      </c>
-      <c r="L186" s="26">
-        <v>21.250000000000004</v>
-      </c>
-      <c r="M186" s="26">
-        <v>13.260000000000002</v>
-      </c>
-      <c r="O186" s="20"/>
-    </row>
-    <row r="187" spans="1:15">
-      <c r="A187" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C187" s="2">
-        <v>1</v>
-      </c>
-      <c r="D187" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E187" s="23">
-        <v>16.5</v>
-      </c>
-      <c r="F187" s="23">
-        <v>74.8</v>
-      </c>
-      <c r="G187" s="23">
-        <v>8.7000000000000028</v>
-      </c>
-      <c r="H187" s="16">
-        <v>4.9411764705882346</v>
-      </c>
-      <c r="I187" s="29">
-        <v>0.35828571428571437</v>
-      </c>
-      <c r="J187" s="29">
-        <v>7.2510204081632681E-2</v>
-      </c>
-      <c r="K187" s="22">
-        <v>0.46511627906976738</v>
-      </c>
-      <c r="L187" s="16">
-        <f t="shared" ref="L187:L192" si="0">L180-K180</f>
-        <v>13.568984989278055</v>
-      </c>
-      <c r="M187" s="16">
-        <f t="shared" ref="M187:M192" si="1">M180-K180</f>
-        <v>7.6789849892780557</v>
-      </c>
-    </row>
-    <row r="188" spans="1:15">
-      <c r="A188" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C188" s="2">
-        <v>1</v>
-      </c>
-      <c r="D188" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E188" s="23">
-        <v>11.2</v>
-      </c>
-      <c r="F188" s="23">
-        <v>55.399999999999991</v>
-      </c>
-      <c r="G188" s="23">
-        <v>33.400000000000006</v>
-      </c>
-      <c r="H188" s="16">
-        <v>4.9859154929577469</v>
-      </c>
-      <c r="I188" s="29">
-        <v>0.3120309278350516</v>
-      </c>
-      <c r="J188" s="29">
-        <v>6.258247422680413E-2</v>
-      </c>
-      <c r="K188" s="22">
-        <v>0.36133415688696718</v>
-      </c>
-      <c r="L188" s="16">
-        <f t="shared" si="0"/>
-        <v>14.520160427807488</v>
-      </c>
-      <c r="M188" s="16">
-        <f t="shared" si="1"/>
-        <v>7.9401604278074895</v>
-      </c>
-    </row>
-    <row r="189" spans="1:15">
-      <c r="A189" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C189" s="2">
-        <v>2</v>
-      </c>
-      <c r="D189" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E189" s="23">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="F189" s="23">
-        <v>77.300000000000011</v>
-      </c>
-      <c r="G189" s="23">
-        <v>3.0999999999999943</v>
-      </c>
-      <c r="H189" s="16">
-        <v>5.443298969072166</v>
-      </c>
-      <c r="I189" s="29">
-        <v>0.45372477064220201</v>
-      </c>
-      <c r="J189" s="29">
-        <v>8.33547400611621E-2</v>
-      </c>
-      <c r="K189" s="22">
-        <v>0.43547557840616968</v>
-      </c>
-      <c r="L189" s="16">
-        <f t="shared" si="0"/>
-        <v>11.811146601146602</v>
-      </c>
-      <c r="M189" s="16">
-        <f t="shared" si="1"/>
-        <v>6.9411466011466008</v>
-      </c>
-    </row>
-    <row r="190" spans="1:15">
-      <c r="A190" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C190" s="2">
-        <v>2</v>
-      </c>
-      <c r="D190" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E190" s="23">
-        <v>24.3</v>
-      </c>
-      <c r="F190" s="23">
-        <v>75.7</v>
-      </c>
-      <c r="G190" s="23">
-        <v>0</v>
-      </c>
-      <c r="H190" s="16">
-        <v>5.3271028037383177</v>
-      </c>
-      <c r="I190" s="29">
-        <v>0.47790393013100413</v>
-      </c>
-      <c r="J190" s="29">
-        <v>8.9711790393013052E-2</v>
-      </c>
-      <c r="K190" s="22">
-        <v>0.46353065539112054</v>
-      </c>
-      <c r="L190" s="16">
-        <f>L183-K183</f>
-        <v>11.868895207148659</v>
-      </c>
-      <c r="M190" s="16">
-        <f>M183-K183</f>
-        <v>6.4388952071486605</v>
-      </c>
-    </row>
-    <row r="191" spans="1:15">
-      <c r="A191" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C191" s="2">
-        <v>2</v>
-      </c>
-      <c r="D191" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E191" s="23">
-        <v>22.9</v>
-      </c>
-      <c r="F191" s="23">
-        <v>77.098000000000013</v>
-      </c>
-      <c r="G191" s="23">
-        <v>1.9999999999953388E-3</v>
-      </c>
-      <c r="H191" s="16">
-        <v>4.6752136752136755</v>
-      </c>
-      <c r="I191" s="29">
-        <v>0.47322697368421052</v>
-      </c>
-      <c r="J191" s="29">
-        <v>0.10122039473684211</v>
-      </c>
-      <c r="K191" s="22">
-        <v>0.41791044776119413</v>
-      </c>
-      <c r="L191" s="16">
-        <f>L184-K184</f>
-        <v>12.685835866261398</v>
-      </c>
-      <c r="M191" s="16">
-        <f>M184-K184</f>
-        <v>6.4458358662613966</v>
-      </c>
-    </row>
-    <row r="192" spans="1:15">
-      <c r="A192" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C192" s="2">
-        <v>1</v>
-      </c>
-      <c r="D192" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E192" s="23">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="F192" s="23">
-        <v>78.800000000000011</v>
-      </c>
-      <c r="G192" s="23">
-        <v>5.0999999999999943</v>
-      </c>
-      <c r="H192" s="16">
-        <v>5.8230088495575227</v>
-      </c>
-      <c r="I192" s="29">
-        <v>0.56707636363636393</v>
-      </c>
-      <c r="J192" s="29">
-        <v>9.7385454545454581E-2</v>
-      </c>
-      <c r="K192" s="22">
-        <v>0.46307692307692322</v>
-      </c>
-      <c r="L192" s="16">
-        <f t="shared" si="0"/>
-        <v>18.240884718498659</v>
-      </c>
-      <c r="M192" s="16">
-        <f t="shared" si="1"/>
-        <v>10.610884718498658</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13">
-      <c r="A193" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C193" s="2">
-        <v>1</v>
-      </c>
-      <c r="D193" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E193" s="23">
-        <v>23.7</v>
-      </c>
-      <c r="F193" s="23">
-        <v>74.599999999999994</v>
-      </c>
-      <c r="G193" s="23">
-        <v>1.7000000000000028</v>
-      </c>
-      <c r="H193" s="16">
-        <v>5.2846715328467146</v>
-      </c>
-      <c r="I193" s="29">
-        <v>0.60983076923076962</v>
-      </c>
-      <c r="J193" s="29">
-        <v>0.11539615384615393</v>
-      </c>
-      <c r="K193" s="22">
-        <v>0.50700636942675159</v>
-      </c>
-      <c r="L193" s="16">
-        <v>23.55</v>
-      </c>
-      <c r="M193" s="16">
-        <v>11.61</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13">
-      <c r="A194" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C194" s="2">
-        <v>1</v>
-      </c>
-      <c r="D194" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E194" s="23">
-        <v>25.3</v>
-      </c>
-      <c r="F194" s="23">
-        <v>74.7</v>
-      </c>
-      <c r="G194" s="23">
-        <v>0</v>
-      </c>
-      <c r="H194" s="16">
-        <v>5.7985611510791371</v>
-      </c>
-      <c r="I194" s="29">
-        <v>0.66992207792207781</v>
-      </c>
-      <c r="J194" s="29">
-        <v>0.11553246753246751</v>
-      </c>
-      <c r="K194" s="22">
-        <v>0.54927211646136631</v>
-      </c>
-      <c r="L194" s="16">
-        <v>17.86</v>
-      </c>
-      <c r="M194" s="16">
-        <v>8.0499999999999989</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13">
-      <c r="A195" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C195" s="2">
-        <v>1</v>
-      </c>
-      <c r="D195" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E195" s="23">
-        <v>25.6</v>
-      </c>
-      <c r="F195" s="23">
-        <v>74.400000000000006</v>
-      </c>
-      <c r="G195" s="23">
-        <v>0</v>
-      </c>
-      <c r="H195" s="16">
-        <v>5.6666666666666661</v>
-      </c>
-      <c r="I195" s="29">
-        <v>0.60397377049180312</v>
-      </c>
-      <c r="J195" s="29">
-        <v>0.10658360655737703</v>
-      </c>
-      <c r="K195" s="22">
-        <v>0.49493374902572101</v>
-      </c>
-      <c r="L195" s="16">
-        <v>25.659999999999997</v>
-      </c>
-      <c r="M195" s="16">
-        <v>12.959999999999999</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13">
-      <c r="A196" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C196" s="2">
-        <v>1</v>
-      </c>
-      <c r="D196" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E196" s="23">
-        <v>23.1</v>
-      </c>
-      <c r="F196" s="23">
-        <v>76.900000000000006</v>
-      </c>
-      <c r="G196" s="23">
-        <v>0</v>
-      </c>
-      <c r="H196" s="16">
-        <v>5.5585585585585591</v>
-      </c>
-      <c r="I196" s="29">
-        <v>0.52972697368421062</v>
-      </c>
-      <c r="J196" s="29">
-        <v>9.5299342105263168E-2</v>
-      </c>
-      <c r="K196" s="22">
-        <v>0.46605922551252849</v>
-      </c>
-      <c r="L196" s="16">
-        <v>21.95</v>
-      </c>
-      <c r="M196" s="16">
-        <v>11.719999999999999</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13">
-      <c r="A197" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C197" s="2">
-        <v>1</v>
-      </c>
-      <c r="D197" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E197" s="23">
-        <v>23.6</v>
-      </c>
-      <c r="F197" s="23">
-        <v>76.400000000000006</v>
-      </c>
-      <c r="G197" s="23">
-        <v>0</v>
-      </c>
-      <c r="H197" s="16">
-        <v>5.09375</v>
-      </c>
-      <c r="I197" s="29">
-        <v>0.55971692307692289</v>
-      </c>
-      <c r="J197" s="29">
-        <v>0.10988307692307689</v>
-      </c>
-      <c r="K197" s="22">
-        <v>0.45335085413929033</v>
-      </c>
-      <c r="L197" s="16">
-        <v>22.83</v>
-      </c>
-      <c r="M197" s="16">
-        <v>12.48</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13">
-      <c r="A198" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C198" s="2">
-        <v>1</v>
-      </c>
-      <c r="D198" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E198" s="23">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="F198" s="23">
-        <v>77.599999999999994</v>
-      </c>
-      <c r="G198" s="23">
-        <v>4</v>
-      </c>
-      <c r="H198" s="16">
-        <v>5.1634615384615392</v>
-      </c>
-      <c r="I198" s="29">
-        <v>0.4583738317757009</v>
-      </c>
-      <c r="J198" s="29">
-        <v>8.8772585669781912E-2</v>
-      </c>
-      <c r="K198" s="22">
-        <v>0.47110904007455728</v>
-      </c>
-      <c r="L198" s="16">
-        <v>21.46</v>
-      </c>
-      <c r="M198" s="16">
-        <v>11.350000000000001</v>
-      </c>
-    </row>
-    <row r="199" spans="1:13">
-      <c r="A199" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C199" s="2">
-        <v>1</v>
-      </c>
-      <c r="D199" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E199" s="23">
-        <v>23.6</v>
-      </c>
-      <c r="F199" s="23">
-        <v>73.900000000000006</v>
-      </c>
-      <c r="G199" s="23">
-        <v>2.5</v>
-      </c>
-      <c r="H199" s="16">
-        <v>5.2880000000000003</v>
-      </c>
-      <c r="I199" s="29">
-        <v>0.57501626016260154</v>
-      </c>
-      <c r="J199" s="29">
-        <v>0.10873983739837396</v>
-      </c>
-      <c r="K199" s="22">
-        <v>0.33125389893948859</v>
-      </c>
-      <c r="L199" s="16">
-        <v>16.03</v>
-      </c>
-      <c r="M199" s="16">
-        <v>10.719999999999999</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13">
-      <c r="A200" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C200" s="2">
-        <v>1</v>
-      </c>
-      <c r="D200" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E200" s="23">
-        <v>24.2</v>
-      </c>
-      <c r="F200" s="23">
-        <v>74.899999999999991</v>
-      </c>
-      <c r="G200" s="23">
-        <v>0.90000000000000568</v>
-      </c>
-      <c r="H200" s="16">
-        <v>5.6046511627906979</v>
-      </c>
-      <c r="I200" s="29">
-        <v>0.61486803519061584</v>
-      </c>
-      <c r="J200" s="29">
-        <v>0.10970674486803519</v>
-      </c>
-      <c r="K200" s="22">
-        <v>0.49954792043399648</v>
-      </c>
-      <c r="L200" s="16">
-        <v>22.119999999999997</v>
-      </c>
-      <c r="M200" s="16">
-        <v>11.069999999999999</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13">
-      <c r="A201" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C201" s="2">
-        <v>1</v>
-      </c>
-      <c r="D201" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E201" s="23">
-        <v>15.5</v>
-      </c>
-      <c r="F201" s="23">
-        <v>70.900000000000006</v>
-      </c>
-      <c r="G201" s="23">
-        <v>13.599999999999994</v>
-      </c>
-      <c r="H201" s="16">
-        <v>5.2342342342342336</v>
-      </c>
-      <c r="I201" s="29">
-        <v>0.50621782178217822</v>
-      </c>
-      <c r="J201" s="29">
-        <v>9.6712871287128729E-2</v>
-      </c>
-      <c r="K201" s="22">
-        <v>0.39734796524919985</v>
-      </c>
-      <c r="L201" s="16">
-        <v>21.87</v>
-      </c>
-      <c r="M201" s="16">
-        <v>13.18</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13">
-      <c r="A202" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C202" s="2">
-        <v>1</v>
-      </c>
-      <c r="D202" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E202" s="23">
-        <v>20.8</v>
-      </c>
-      <c r="F202" s="23">
-        <v>76.400000000000006</v>
-      </c>
-      <c r="G202" s="23">
-        <v>2.7999999999999972</v>
-      </c>
-      <c r="H202" s="16">
-        <v>6.0731707317073171</v>
-      </c>
-      <c r="I202" s="29">
-        <v>0.8202352941176474</v>
-      </c>
-      <c r="J202" s="29">
-        <v>0.13505882352941181</v>
-      </c>
-      <c r="K202" s="22">
-        <v>0.56796116504854355</v>
-      </c>
-      <c r="L202" s="16">
-        <v>18.54</v>
-      </c>
-      <c r="M202" s="16">
-        <v>8.0100000000000016</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13">
-      <c r="A203" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C203" s="2">
-        <v>1</v>
-      </c>
-      <c r="D203" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E203" s="23">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="F203" s="23">
-        <v>71.599999999999994</v>
-      </c>
-      <c r="G203" s="23">
-        <v>9.5</v>
-      </c>
-      <c r="H203" s="16">
-        <v>5.4251968503937</v>
-      </c>
-      <c r="I203" s="29">
-        <v>0.579994029850746</v>
-      </c>
-      <c r="J203" s="29">
-        <v>0.10690746268656713</v>
-      </c>
-      <c r="K203" s="22">
-        <v>0.47879061371841153</v>
-      </c>
-      <c r="L203" s="16">
-        <v>22.16</v>
-      </c>
-      <c r="M203" s="16">
-        <v>11.55</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13">
-      <c r="A204" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C204" s="2">
-        <v>1</v>
-      </c>
-      <c r="D204" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E204" s="23">
-        <v>20.5</v>
-      </c>
-      <c r="F204" s="23">
-        <v>74.099999999999994</v>
-      </c>
-      <c r="G204" s="23">
-        <v>5.4000000000000057</v>
-      </c>
-      <c r="H204" s="16">
-        <v>5.3571428571428568</v>
-      </c>
-      <c r="I204" s="29">
-        <v>0.51275964391691387</v>
-      </c>
-      <c r="J204" s="29">
-        <v>9.5715133531157265E-2</v>
-      </c>
-      <c r="K204" s="22">
-        <v>0.51623931623931618</v>
-      </c>
-      <c r="L204" s="16">
-        <v>17.55</v>
-      </c>
-      <c r="M204" s="16">
-        <v>8.490000000000002</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13">
-      <c r="A205" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C205" s="2">
-        <v>1</v>
-      </c>
-      <c r="D205" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E205" s="23">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="F205" s="23">
-        <v>66.699999999999989</v>
-      </c>
-      <c r="G205" s="23">
-        <v>14.900000000000006</v>
-      </c>
-      <c r="H205" s="16">
-        <v>5.8761904761904766</v>
-      </c>
-      <c r="I205" s="29">
-        <v>0.51388493150684944</v>
-      </c>
-      <c r="J205" s="29">
-        <v>8.7452054794520562E-2</v>
-      </c>
-      <c r="K205" s="22">
-        <v>0.4437577255871446</v>
-      </c>
-      <c r="L205" s="16">
-        <v>16.18</v>
-      </c>
-      <c r="M205" s="16">
-        <v>8.9999999999999982</v>
-      </c>
-    </row>
-    <row r="206" spans="1:13">
-      <c r="A206" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C206" s="2">
-        <v>1</v>
-      </c>
-      <c r="D206" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E206" s="23">
-        <v>23.5</v>
-      </c>
-      <c r="F206" s="23">
-        <v>76.497</v>
-      </c>
-      <c r="G206" s="23">
-        <v>3.0000000000001137E-3</v>
-      </c>
-      <c r="H206" s="16">
-        <v>5.3809523809523814</v>
-      </c>
-      <c r="I206" s="29">
-        <v>0.57239252336448609</v>
-      </c>
-      <c r="J206" s="29">
-        <v>0.10637383177570095</v>
-      </c>
-      <c r="K206" s="22">
-        <v>0.52134319863403533</v>
-      </c>
-      <c r="L206" s="16">
-        <v>17.57</v>
-      </c>
-      <c r="M206" s="16">
-        <v>8.4099999999999984</v>
-      </c>
-    </row>
-    <row r="207" spans="1:13">
-      <c r="A207" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C207" s="2">
-        <v>1</v>
-      </c>
-      <c r="D207" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E207" s="23">
-        <v>21.8</v>
-      </c>
-      <c r="F207" s="23">
-        <v>70.900000000000006</v>
-      </c>
-      <c r="G207" s="23">
-        <v>7.2999999999999972</v>
-      </c>
-      <c r="H207" s="16">
-        <v>5.7117117117117111</v>
-      </c>
-      <c r="I207" s="29">
-        <v>0.51906432748538023</v>
-      </c>
-      <c r="J207" s="29">
-        <v>9.0877192982456168E-2</v>
-      </c>
-      <c r="K207" s="22">
-        <v>0.46499715424018223</v>
-      </c>
-      <c r="L207" s="16">
-        <v>17.57</v>
-      </c>
-      <c r="M207" s="16">
-        <v>9.3999999999999986</v>
-      </c>
-    </row>
-    <row r="208" spans="1:13">
-      <c r="A208" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C208" s="2">
-        <v>1</v>
-      </c>
-      <c r="D208" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E208" s="23">
-        <v>22.9</v>
-      </c>
-      <c r="F208" s="23">
-        <v>71.699999999999989</v>
-      </c>
-      <c r="G208" s="23">
-        <v>5.4000000000000057</v>
-      </c>
-      <c r="H208" s="16">
-        <v>5.1171171171171173</v>
-      </c>
-      <c r="I208" s="29">
-        <v>0.44345060240963835</v>
-      </c>
-      <c r="J208" s="29">
-        <v>8.6660240963855384E-2</v>
-      </c>
-      <c r="K208" s="22">
-        <v>0.32447342026078246</v>
-      </c>
-      <c r="L208" s="16">
-        <v>19.940000000000001</v>
-      </c>
-      <c r="M208" s="16">
-        <v>13.469999999999999</v>
-      </c>
-    </row>
-    <row r="209" spans="1:17">
-      <c r="A209" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C209" s="2">
-        <v>1</v>
-      </c>
-      <c r="D209" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E209" s="23">
-        <v>7.96</v>
-      </c>
-      <c r="F209" s="23">
-        <v>15.84</v>
-      </c>
-      <c r="G209" s="23">
-        <v>76.2</v>
-      </c>
-      <c r="H209" s="16">
-        <v>5.4144144144144137</v>
-      </c>
-      <c r="I209" s="29">
-        <v>0.35559626568717478</v>
-      </c>
-      <c r="J209" s="29">
-        <v>6.5675849403122141E-2</v>
-      </c>
-      <c r="K209" s="22">
-        <v>0.29141428174492934</v>
-      </c>
-      <c r="L209" s="16">
-        <v>17.995000000000001</v>
-      </c>
-      <c r="M209" s="16">
-        <v>12.750999999999998</v>
-      </c>
-    </row>
-    <row r="210" spans="1:17">
-      <c r="A210" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C210" s="2">
-        <v>1</v>
-      </c>
-      <c r="D210" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E210" s="23">
-        <v>15.3</v>
-      </c>
-      <c r="F210" s="23">
-        <v>45.5</v>
-      </c>
-      <c r="G210" s="23">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="H210" s="16">
-        <v>5.2666666666666666</v>
-      </c>
-      <c r="I210" s="29">
-        <v>0.26784133611691019</v>
-      </c>
-      <c r="J210" s="29">
-        <v>5.0855949895615857E-2</v>
-      </c>
-      <c r="K210" s="22">
-        <v>0.33378684807256237</v>
-      </c>
-      <c r="L210" s="16">
-        <v>22.049999999999997</v>
-      </c>
-      <c r="M210" s="16">
-        <v>14.689999999999998</v>
-      </c>
-    </row>
-    <row r="211" spans="1:17">
-      <c r="A211" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C211" s="2">
-        <v>1</v>
-      </c>
-      <c r="D211" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E211" s="23">
-        <v>13.2</v>
-      </c>
-      <c r="F211" s="23">
-        <v>30.500000000000004</v>
-      </c>
-      <c r="G211" s="23">
-        <v>56.3</v>
-      </c>
-      <c r="H211" s="16">
-        <v>5.3625730994152052</v>
-      </c>
-      <c r="I211" s="29">
-        <v>0.27422248803827698</v>
-      </c>
-      <c r="J211" s="29">
-        <v>5.1136363636363626E-2</v>
-      </c>
-      <c r="K211" s="16">
-        <v>0.39728277097641079</v>
-      </c>
-      <c r="L211" s="16">
-        <v>13.396000000000001</v>
-      </c>
-      <c r="M211" s="16">
-        <v>8.0740000000000016</v>
-      </c>
-    </row>
-    <row r="212" spans="1:17">
-      <c r="A212" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C212" s="2">
-        <v>2</v>
-      </c>
-      <c r="D212" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E212" s="23">
-        <v>21.9</v>
-      </c>
-      <c r="F212" s="23">
-        <v>51.4</v>
-      </c>
-      <c r="G212" s="23">
-        <v>26.700000000000003</v>
-      </c>
-      <c r="H212" s="16">
-        <v>5.3230240549828176</v>
-      </c>
-      <c r="I212" s="29">
-        <v>0.30122598973607034</v>
-      </c>
-      <c r="J212" s="29">
-        <v>5.6589259530791781E-2</v>
-      </c>
-      <c r="K212" s="16">
-        <v>0.34614174643836226</v>
-      </c>
-      <c r="L212" s="16">
-        <v>22.250999999999998</v>
-      </c>
-      <c r="M212" s="16">
-        <v>14.548999999999999</v>
-      </c>
-    </row>
-    <row r="213" spans="1:17">
-      <c r="A213" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C213" s="2">
-        <v>1</v>
-      </c>
-      <c r="D213" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E213" s="23">
-        <v>24.2</v>
-      </c>
-      <c r="F213" s="23">
-        <v>71.099999999999994</v>
-      </c>
-      <c r="G213" s="23">
-        <v>4.7000000000000028</v>
-      </c>
-      <c r="H213" s="16">
-        <v>5.3443917851500791</v>
-      </c>
-      <c r="I213" s="29">
-        <v>0.34055059523809517</v>
-      </c>
-      <c r="J213" s="29">
-        <v>6.3721113445378133E-2</v>
-      </c>
-      <c r="K213" s="16">
-        <v>0.49449089197718848</v>
-      </c>
-      <c r="L213" s="16">
-        <v>18.061</v>
-      </c>
-      <c r="M213" s="16">
-        <v>9.129999999999999</v>
-      </c>
-    </row>
-    <row r="214" spans="1:17">
-      <c r="A214" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D214" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H214" s="16">
-        <f>I214/J214</f>
-        <v>4.9747379130277256</v>
-      </c>
-      <c r="I214" s="15">
-        <v>0.41692659357797601</v>
-      </c>
-      <c r="J214" s="15">
-        <v>8.3808755529841794E-2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:17">
-      <c r="A215" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D215" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E215" s="23">
-        <v>23.6</v>
-      </c>
-      <c r="F215" s="23">
-        <v>74.400000000000006</v>
-      </c>
-      <c r="G215" s="23">
-        <v>2</v>
-      </c>
-      <c r="H215" s="16">
-        <f t="shared" ref="H215:H220" si="2">I215/J215</f>
-        <v>5.5026538550753772</v>
-      </c>
-      <c r="I215" s="15">
-        <v>0.4709272039224171</v>
-      </c>
-      <c r="J215" s="15">
-        <v>8.5581833116407463E-2</v>
-      </c>
-    </row>
-    <row r="216" spans="1:17">
-      <c r="A216" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D216" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E216" s="23">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="F216" s="23">
-        <v>65.099999999999994</v>
-      </c>
-      <c r="G216" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="H216" s="16">
-        <f t="shared" si="2"/>
-        <v>5.1703386024557663</v>
-      </c>
-      <c r="I216" s="15">
-        <v>0.51381228411782665</v>
-      </c>
-      <c r="J216" s="15">
-        <v>9.937691196351825E-2</v>
-      </c>
-    </row>
-    <row r="217" spans="1:17">
-      <c r="A217" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D217" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E217" s="23">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="F217" s="23">
-        <v>65.099999999999994</v>
-      </c>
-      <c r="G217" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="H217" s="16">
-        <f t="shared" si="2"/>
-        <v>5.0069008018505565</v>
-      </c>
-      <c r="I217" s="15">
-        <v>0.49025555801455101</v>
-      </c>
-      <c r="J217" s="15">
-        <v>9.7915971858949541E-2</v>
-      </c>
-    </row>
-    <row r="218" spans="1:17">
-      <c r="A218" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D218" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E218" s="23">
-        <v>22.4</v>
-      </c>
-      <c r="F218" s="23">
-        <v>73.900000000000006</v>
-      </c>
-      <c r="G218" s="23">
-        <v>3.8</v>
-      </c>
-      <c r="H218" s="16">
-        <f t="shared" si="2"/>
-        <v>5.1582161880578532</v>
-      </c>
-      <c r="I218" s="15">
-        <v>0.4423758404053299</v>
-      </c>
-      <c r="J218" s="15">
-        <v>8.576139973146242E-2</v>
-      </c>
-    </row>
-    <row r="219" spans="1:17">
-      <c r="A219" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D219" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E219" s="23">
-        <v>24</v>
-      </c>
-      <c r="F219" s="23">
-        <v>73.099999999999994</v>
-      </c>
-      <c r="G219" s="23">
-        <v>3</v>
-      </c>
-      <c r="H219" s="16">
-        <f t="shared" si="2"/>
-        <v>4.6009368694040802</v>
-      </c>
-      <c r="I219" s="15">
-        <v>0.41670125948110825</v>
-      </c>
-      <c r="J219" s="15">
-        <v>9.0568784425655455E-2</v>
-      </c>
-    </row>
-    <row r="220" spans="1:17">
-      <c r="A220" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D220" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E220" s="23">
-        <v>27.4</v>
-      </c>
-      <c r="F220" s="23">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="G220" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="H220" s="16">
-        <f t="shared" si="2"/>
-        <v>5.0311729233124343</v>
-      </c>
-      <c r="I220" s="15">
-        <v>0.48979070819947401</v>
-      </c>
-      <c r="J220" s="15">
-        <v>9.7351197357972055E-2</v>
-      </c>
-    </row>
-    <row r="221" spans="1:17">
-      <c r="A221" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D221" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H221" s="16">
-        <v>7.7935726100953389</v>
-      </c>
-      <c r="I221" s="15">
-        <v>0.9290700089761692</v>
-      </c>
-      <c r="J221" s="15">
-        <v>0.13908452583430381</v>
-      </c>
-      <c r="K221" s="15">
-        <v>0.4910754594181756</v>
-      </c>
-      <c r="N221">
-        <v>-21.305849204999809</v>
-      </c>
-      <c r="O221">
-        <v>6.0327452153474983</v>
-      </c>
-      <c r="P221">
-        <v>372.01615568707649</v>
-      </c>
-      <c r="Q221">
-        <v>0.71395392775114042</v>
-      </c>
-    </row>
-    <row r="222" spans="1:17">
-      <c r="A222" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D222" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H222" s="16">
-        <v>6.8411869769522369</v>
-      </c>
-      <c r="I222" s="15">
-        <v>0.61050946867691946</v>
-      </c>
-      <c r="J222" s="15">
-        <v>0.10415442820242926</v>
-      </c>
-      <c r="K222" s="15">
-        <v>0.36062262072835444</v>
-      </c>
-      <c r="N222">
-        <v>-21.259007645261434</v>
-      </c>
-      <c r="O222">
-        <v>5.8371555111746778</v>
-      </c>
-      <c r="P222">
-        <v>266.1361941968978</v>
-      </c>
-      <c r="Q222">
-        <v>0.59348126406387791</v>
-      </c>
-    </row>
-    <row r="223" spans="1:17">
-      <c r="A223" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D223" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H223" s="16">
-        <v>5.1751311939377764</v>
-      </c>
-      <c r="I223" s="15">
-        <v>0.32912756384734421</v>
-      </c>
-      <c r="J223" s="15">
-        <v>7.432376872285501E-2</v>
-      </c>
-      <c r="K223" s="15">
-        <v>0.39415102163657489</v>
-      </c>
-      <c r="N223">
-        <v>-21.050460240442021</v>
-      </c>
-      <c r="O223">
-        <v>6.5657808926536445</v>
-      </c>
-      <c r="P223">
-        <v>201.71786869845286</v>
-      </c>
-      <c r="Q223">
-        <v>0.6271931394856729</v>
-      </c>
-    </row>
-    <row r="224" spans="1:17">
-      <c r="A224" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D224" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H224" s="16">
-        <v>5.4514357592497458</v>
-      </c>
-      <c r="I224" s="15">
-        <v>0.11250735598628414</v>
-      </c>
-      <c r="J224" s="15">
-        <v>2.4079058590710314E-2</v>
-      </c>
-      <c r="K224" s="15">
-        <v>0.22790166668972606</v>
-      </c>
-      <c r="N224">
-        <v>-20.667953780870803</v>
-      </c>
-      <c r="O224">
-        <v>5.7758993950326403</v>
-      </c>
-      <c r="P224">
-        <v>159.33319612275793</v>
-      </c>
-      <c r="Q224">
-        <v>0.43305032713145453</v>
-      </c>
-    </row>
-    <row r="225" spans="1:17">
-      <c r="A225" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D225" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H225" s="16">
-        <v>4.6261777472143342</v>
-      </c>
-      <c r="I225" s="15">
-        <v>8.3471193774049851E-2</v>
-      </c>
-      <c r="J225" s="15">
-        <v>2.0945263777168759E-2</v>
-      </c>
-      <c r="K225" s="15">
-        <v>0.18211544373860325</v>
-      </c>
-      <c r="N225">
-        <v>-20.885656925413997</v>
-      </c>
-      <c r="O225">
-        <v>6.8677627985468455</v>
-      </c>
-      <c r="P225">
-        <v>187.09138576511305</v>
-      </c>
-      <c r="Q225">
-        <v>0.36557767596937218</v>
-      </c>
-    </row>
-    <row r="226" spans="1:17">
-      <c r="A226" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D226" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="H226" s="16">
-        <v>5.2265694600623549</v>
-      </c>
-      <c r="I226" s="15">
-        <v>2.6481598688400096E-2</v>
-      </c>
-      <c r="J226" s="15">
-        <v>5.9141509574835958E-3</v>
-      </c>
-      <c r="K226" s="15">
-        <v>0.14666030895834015</v>
-      </c>
-      <c r="N226">
-        <v>-21.806317419860669</v>
-      </c>
-      <c r="O226">
-        <v>9.2159139173249294</v>
-      </c>
-      <c r="P226">
-        <v>38.039216528923255</v>
-      </c>
-      <c r="Q226">
-        <v>0.30789034128000314</v>
-      </c>
-    </row>
-    <row r="227" spans="1:17">
-      <c r="A227" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D227" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H227" s="16">
-        <v>12.034671653903338</v>
-      </c>
-      <c r="I227" s="15">
-        <v>1.7111554603293975E-2</v>
-      </c>
-      <c r="J227" s="15">
-        <v>1.6590574208108619E-3</v>
-      </c>
-      <c r="K227" s="15">
-        <v>0.13638590376421017</v>
-      </c>
-      <c r="N227">
-        <v>-23.643569191099012</v>
-      </c>
-      <c r="O227">
-        <v>12.859578159071891</v>
-      </c>
-      <c r="P227">
-        <v>37.825503064948457</v>
-      </c>
-      <c r="Q227">
-        <v>0.29008614056684889</v>
-      </c>
-    </row>
-    <row r="228" spans="1:17">
-      <c r="A228" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D228" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H228" s="16">
-        <v>5.5866539166413327</v>
-      </c>
-      <c r="I228" s="15">
-        <v>0.85698267454871369</v>
-      </c>
-      <c r="J228" s="15">
-        <v>0.17896457078334918</v>
-      </c>
-      <c r="K228" s="15">
-        <v>0.48805069863327499</v>
-      </c>
-      <c r="N228">
-        <v>-26.938750877525045</v>
-      </c>
-      <c r="O228">
-        <v>4.6401104116286351</v>
-      </c>
-      <c r="P228">
-        <v>1304.1576329107136</v>
-      </c>
-      <c r="Q228">
-        <v>0.71167339439635158</v>
-      </c>
-    </row>
-    <row r="229" spans="1:17">
-      <c r="A229" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="B229" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="C229" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="D229" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H229" s="16">
-        <v>5.9222152387988967</v>
-      </c>
-      <c r="I229" s="15">
-        <v>0.70957312932058769</v>
-      </c>
-      <c r="J229" s="15">
-        <v>0.13978474002721006</v>
-      </c>
-      <c r="K229" s="15">
-        <v>0.46004068584713731</v>
-      </c>
-      <c r="N229">
-        <v>-23.703082679770109</v>
-      </c>
-      <c r="O229">
-        <v>5.7277762223828237</v>
-      </c>
-      <c r="P229">
-        <v>1175.8996802128297</v>
-      </c>
-      <c r="Q229">
-        <v>0.68807877423087205</v>
-      </c>
-    </row>
-    <row r="230" spans="1:17">
-      <c r="A230" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="B230" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="C230" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D230" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H230" s="16">
-        <v>5.6426746384652064</v>
-      </c>
-      <c r="I230" s="15">
-        <v>0.83159071181772237</v>
-      </c>
-      <c r="J230" s="15">
-        <v>0.17193781778125555</v>
-      </c>
-      <c r="K230" s="15">
-        <v>0.43025210084033616</v>
-      </c>
-      <c r="N230">
-        <v>-27.655598931058023</v>
-      </c>
-      <c r="O230">
-        <v>4.1502015772735259</v>
-      </c>
-      <c r="P230">
-        <v>1335.8868447658253</v>
-      </c>
-      <c r="Q230">
-        <v>0.66161709008437475</v>
       </c>
     </row>
   </sheetData>
@@ -11123,7 +7654,7 @@
         <v>40</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -11134,7 +7665,7 @@
         <v>45</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -11145,16 +7676,16 @@
         <v>45</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="14" customFormat="1">
       <c r="A14" s="8" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="5" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -11165,7 +7696,7 @@
         <v>46</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -11176,30 +7707,30 @@
         <v>46</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
-        <v>136</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="6" t="s">
-        <v>134</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="6" t="s">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>138</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="6" t="s">
-        <v>140</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
